--- a/data/tags.xlsx
+++ b/data/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savannah\Documents\Classes\Summer2020\Research\ASWW2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C55DD-C0C7-400E-8644-D12EDDF9C529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DCF3F-93F7-49D8-8431-61CBAD9C2642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3190" yWindow="200" windowWidth="14630" windowHeight="9770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZooniverseTags" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8350" uniqueCount="5857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8350" uniqueCount="5853">
   <si>
     <t>1in10rations</t>
   </si>
@@ -14872,9 +14872,6 @@
     <t>better future</t>
   </si>
   <si>
-    <t>better jobfits</t>
-  </si>
-  <si>
     <t>better job placement</t>
   </si>
   <si>
@@ -15205,9 +15202,6 @@
     <t>civilian air corps</t>
   </si>
   <si>
-    <t>civilia narmy</t>
-  </si>
-  <si>
     <t>civilian career</t>
   </si>
   <si>
@@ -15670,9 +15664,6 @@
     <t>espirit de corps</t>
   </si>
   <si>
-    <t>espirt de corps</t>
-  </si>
-  <si>
     <t>establish job</t>
   </si>
   <si>
@@ -17506,21 +17497,12 @@
     <t>combat flying</t>
   </si>
   <si>
-    <t>confidence ship</t>
-  </si>
-  <si>
-    <t>confidence troops</t>
-  </si>
-  <si>
     <t>enemy atrocities</t>
   </si>
   <si>
     <t>enemy vindictiveness</t>
   </si>
   <si>
-    <t>esprit corps</t>
-  </si>
-  <si>
     <t>fighting facts</t>
   </si>
   <si>
@@ -17554,9 +17536,6 @@
     <t>pacific toughness</t>
   </si>
   <si>
-    <t>pride outfit</t>
-  </si>
-  <si>
     <t>program preferences</t>
   </si>
   <si>
@@ -17578,9 +17557,6 @@
     <t>transfer accountplan</t>
   </si>
   <si>
-    <t>ve day</t>
-  </si>
-  <si>
     <t>ward information</t>
   </si>
   <si>
@@ -17597,6 +17573,18 @@
   </si>
   <si>
     <t>time off</t>
+  </si>
+  <si>
+    <t>civilian army</t>
+  </si>
+  <si>
+    <t>better job fits</t>
+  </si>
+  <si>
+    <t>arm films</t>
+  </si>
+  <si>
+    <t>esprit de corps</t>
   </si>
 </sst>
 </file>
@@ -17892,8 +17880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3964" sqref="A3964"/>
+    <sheetView topLeftCell="A1124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1146" sqref="B1146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20692,7 +20680,7 @@
         <v>543</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>5014</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -20940,7 +20928,7 @@
         <v>571</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21052,7 +21040,7 @@
         <v>585</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>4948</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21060,7 +21048,7 @@
         <v>586</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21068,7 +21056,7 @@
         <v>587</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21076,7 +21064,7 @@
         <v>588</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21084,7 +21072,7 @@
         <v>589</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21100,7 +21088,7 @@
         <v>591</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21108,7 +21096,7 @@
         <v>592</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21116,7 +21104,7 @@
         <v>593</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21124,7 +21112,7 @@
         <v>594</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21132,7 +21120,7 @@
         <v>595</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21140,7 +21128,7 @@
         <v>596</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21148,7 +21136,7 @@
         <v>597</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21156,7 +21144,7 @@
         <v>598</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21164,7 +21152,7 @@
         <v>599</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21172,7 +21160,7 @@
         <v>600</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21204,7 +21192,7 @@
         <v>604</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>4963</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21212,7 +21200,7 @@
         <v>605</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>4964</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21228,7 +21216,7 @@
         <v>607</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21236,7 +21224,7 @@
         <v>608</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>4966</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21252,7 +21240,7 @@
         <v>610</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>4967</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21276,7 +21264,7 @@
         <v>613</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>4968</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21284,7 +21272,7 @@
         <v>614</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>4969</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21292,7 +21280,7 @@
         <v>615</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>4970</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21316,7 +21304,7 @@
         <v>618</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21340,7 +21328,7 @@
         <v>621</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>4971</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21348,7 +21336,7 @@
         <v>622</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21356,7 +21344,7 @@
         <v>623</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21364,7 +21352,7 @@
         <v>624</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>4974</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21380,7 +21368,7 @@
         <v>625</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>4975</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21388,7 +21376,7 @@
         <v>626</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21412,7 +21400,7 @@
         <v>629</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21436,7 +21424,7 @@
         <v>632</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21444,7 +21432,7 @@
         <v>633</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21540,7 +21528,7 @@
         <v>645</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21572,7 +21560,7 @@
         <v>649</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21636,7 +21624,7 @@
         <v>657</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21660,7 +21648,7 @@
         <v>660</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21700,7 +21688,7 @@
         <v>27</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21748,7 +21736,7 @@
         <v>670</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>4984</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21780,7 +21768,7 @@
         <v>673</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21788,7 +21776,7 @@
         <v>674</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21796,7 +21784,7 @@
         <v>675</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21804,7 +21792,7 @@
         <v>676</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21812,7 +21800,7 @@
         <v>677</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21828,7 +21816,7 @@
         <v>679</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21844,7 +21832,7 @@
         <v>681</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>4991</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21868,7 +21856,7 @@
         <v>684</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>4992</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21876,7 +21864,7 @@
         <v>685</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21884,7 +21872,7 @@
         <v>686</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21892,7 +21880,7 @@
         <v>687</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21924,7 +21912,7 @@
         <v>691</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>4996</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21940,7 +21928,7 @@
         <v>693</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>4997</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21948,7 +21936,7 @@
         <v>694</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21972,7 +21960,7 @@
         <v>697</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21980,7 +21968,7 @@
         <v>698</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -21996,7 +21984,7 @@
         <v>700</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22012,7 +22000,7 @@
         <v>702</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22028,7 +22016,7 @@
         <v>704</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22076,7 +22064,7 @@
         <v>709</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>5003</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22084,7 +22072,7 @@
         <v>710</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>5004</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22092,7 +22080,7 @@
         <v>711</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22100,7 +22088,7 @@
         <v>712</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22108,7 +22096,7 @@
         <v>713</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22116,7 +22104,7 @@
         <v>31</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22124,7 +22112,7 @@
         <v>714</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22132,7 +22120,7 @@
         <v>715</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22140,7 +22128,7 @@
         <v>716</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22148,7 +22136,7 @@
         <v>717</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22156,7 +22144,7 @@
         <v>718</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22204,7 +22192,7 @@
         <v>724</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>5019</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22212,7 +22200,7 @@
         <v>725</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22236,7 +22224,7 @@
         <v>728</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22244,7 +22232,7 @@
         <v>729</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22252,7 +22240,7 @@
         <v>730</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22260,7 +22248,7 @@
         <v>731</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22268,7 +22256,7 @@
         <v>732</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22276,7 +22264,7 @@
         <v>733</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22292,7 +22280,7 @@
         <v>735</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22316,7 +22304,7 @@
         <v>738</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>5028</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22324,7 +22312,7 @@
         <v>739</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22396,7 +22384,7 @@
         <v>748</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22412,7 +22400,7 @@
         <v>749</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22420,7 +22408,7 @@
         <v>750</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22428,7 +22416,7 @@
         <v>751</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>5033</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="567" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22436,7 +22424,7 @@
         <v>752</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>5034</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22468,7 +22456,7 @@
         <v>756</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22476,7 +22464,7 @@
         <v>757</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22508,7 +22496,7 @@
         <v>761</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22540,7 +22528,7 @@
         <v>764</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>5038</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22556,7 +22544,7 @@
         <v>766</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>5039</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22604,7 +22592,7 @@
         <v>772</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22612,7 +22600,7 @@
         <v>773</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22620,7 +22608,7 @@
         <v>774</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22628,7 +22616,7 @@
         <v>775</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22636,7 +22624,7 @@
         <v>776</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22644,7 +22632,7 @@
         <v>777</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22652,7 +22640,7 @@
         <v>778</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22668,7 +22656,7 @@
         <v>780</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22676,7 +22664,7 @@
         <v>781</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22692,7 +22680,7 @@
         <v>783</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22708,7 +22696,7 @@
         <v>785</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22732,7 +22720,7 @@
         <v>788</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22740,7 +22728,7 @@
         <v>789</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22860,7 +22848,7 @@
         <v>802</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="621" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22940,7 +22928,7 @@
         <v>812</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>5054</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="631" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22948,7 +22936,7 @@
         <v>813</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="632" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22956,7 +22944,7 @@
         <v>814</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22964,7 +22952,7 @@
         <v>815</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="634" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22980,7 +22968,7 @@
         <v>817</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22988,7 +22976,7 @@
         <v>818</v>
       </c>
       <c r="B636" s="6" t="s">
-        <v>5059</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="637" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -22996,7 +22984,7 @@
         <v>819</v>
       </c>
       <c r="B637" s="6" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23004,7 +22992,7 @@
         <v>820</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23012,7 +23000,7 @@
         <v>821</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23020,7 +23008,7 @@
         <v>822</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="641" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23028,7 +23016,7 @@
         <v>823</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23036,7 +23024,7 @@
         <v>824</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23044,7 +23032,7 @@
         <v>825</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23052,7 +23040,7 @@
         <v>826</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23060,7 +23048,7 @@
         <v>827</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23068,7 +23056,7 @@
         <v>828</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23084,7 +23072,7 @@
         <v>829</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="649" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23092,7 +23080,7 @@
         <v>39</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23100,7 +23088,7 @@
         <v>830</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="651" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23108,7 +23096,7 @@
         <v>831</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23116,7 +23104,7 @@
         <v>832</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="653" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23124,7 +23112,7 @@
         <v>833</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23132,7 +23120,7 @@
         <v>834</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="655" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23156,7 +23144,7 @@
         <v>837</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23164,7 +23152,7 @@
         <v>838</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23172,7 +23160,7 @@
         <v>839</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23180,7 +23168,7 @@
         <v>840</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23188,7 +23176,7 @@
         <v>841</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23228,7 +23216,7 @@
         <v>846</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>5568</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23236,7 +23224,7 @@
         <v>847</v>
       </c>
       <c r="B667" s="7" t="s">
-        <v>5569</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="668" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23252,7 +23240,7 @@
         <v>849</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23292,7 +23280,7 @@
         <v>854</v>
       </c>
       <c r="B674" s="6" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23308,7 +23296,7 @@
         <v>856</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23340,7 +23328,7 @@
         <v>859</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="681" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23412,7 +23400,7 @@
         <v>868</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23428,7 +23416,7 @@
         <v>870</v>
       </c>
       <c r="B691" s="6" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23452,7 +23440,7 @@
         <v>873</v>
       </c>
       <c r="B694" s="6" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23460,7 +23448,7 @@
         <v>874</v>
       </c>
       <c r="B695" s="6" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23468,7 +23456,7 @@
         <v>875</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23476,7 +23464,7 @@
         <v>876</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23484,7 +23472,7 @@
         <v>877</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>5092</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23500,7 +23488,7 @@
         <v>879</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23508,7 +23496,7 @@
         <v>41</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>5094</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23516,7 +23504,7 @@
         <v>880</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23532,7 +23520,7 @@
         <v>881</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>5096</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23540,7 +23528,7 @@
         <v>882</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23548,7 +23536,7 @@
         <v>883</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>5098</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23556,7 +23544,7 @@
         <v>884</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>5099</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23564,7 +23552,7 @@
         <v>885</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>5100</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23572,7 +23560,7 @@
         <v>886</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23580,7 +23568,7 @@
         <v>887</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23588,7 +23576,7 @@
         <v>888</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23596,7 +23584,7 @@
         <v>889</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23604,7 +23592,7 @@
         <v>890</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23612,7 +23600,7 @@
         <v>891</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23620,7 +23608,7 @@
         <v>892</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23628,7 +23616,7 @@
         <v>43</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23636,7 +23624,7 @@
         <v>893</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23644,7 +23632,7 @@
         <v>894</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23652,7 +23640,7 @@
         <v>895</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23660,7 +23648,7 @@
         <v>896</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23684,7 +23672,7 @@
         <v>899</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23700,7 +23688,7 @@
         <v>901</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23740,7 +23728,7 @@
         <v>906</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23748,7 +23736,7 @@
         <v>907</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23772,7 +23760,7 @@
         <v>910</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23780,7 +23768,7 @@
         <v>911</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23820,7 +23808,7 @@
         <v>916</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23828,7 +23816,7 @@
         <v>917</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23844,7 +23832,7 @@
         <v>919</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23860,7 +23848,7 @@
         <v>921</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>5570</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23884,7 +23872,7 @@
         <v>924</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24028,7 +24016,7 @@
         <v>941</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24044,7 +24032,7 @@
         <v>943</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24068,7 +24056,7 @@
         <v>946</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24076,7 +24064,7 @@
         <v>947</v>
       </c>
       <c r="B772" s="6" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24140,7 +24128,7 @@
         <v>45</v>
       </c>
       <c r="B780" s="6" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24148,7 +24136,7 @@
         <v>46</v>
       </c>
       <c r="B781" s="6" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24236,7 +24224,7 @@
         <v>964</v>
       </c>
       <c r="B792" s="6" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24252,7 +24240,7 @@
         <v>966</v>
       </c>
       <c r="B794" s="6" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24276,7 +24264,7 @@
         <v>969</v>
       </c>
       <c r="B797" s="6" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24324,7 +24312,7 @@
         <v>975</v>
       </c>
       <c r="B803" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24388,7 +24376,7 @@
         <v>983</v>
       </c>
       <c r="B811" s="7" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24428,7 +24416,7 @@
         <v>988</v>
       </c>
       <c r="B816" s="6" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24436,7 +24424,7 @@
         <v>989</v>
       </c>
       <c r="B817" s="6" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24452,7 +24440,7 @@
         <v>991</v>
       </c>
       <c r="B819" s="6" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24484,7 +24472,7 @@
         <v>995</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24492,7 +24480,7 @@
         <v>996</v>
       </c>
       <c r="B824" s="6" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24508,7 +24496,7 @@
         <v>998</v>
       </c>
       <c r="B826" s="6" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24516,7 +24504,7 @@
         <v>999</v>
       </c>
       <c r="B827" s="6" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24524,7 +24512,7 @@
         <v>1000</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24540,7 +24528,7 @@
         <v>1002</v>
       </c>
       <c r="B830" s="6" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24580,7 +24568,7 @@
         <v>1007</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24636,7 +24624,7 @@
         <v>1014</v>
       </c>
       <c r="B842" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24644,7 +24632,7 @@
         <v>50</v>
       </c>
       <c r="B843" s="6" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24676,7 +24664,7 @@
         <v>1018</v>
       </c>
       <c r="B847" s="7" t="s">
-        <v>5571</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24684,7 +24672,7 @@
         <v>1019</v>
       </c>
       <c r="B848" s="6" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24692,7 +24680,7 @@
         <v>1020</v>
       </c>
       <c r="B849" s="6" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24732,7 +24720,7 @@
         <v>1025</v>
       </c>
       <c r="B854" s="6" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24764,7 +24752,7 @@
         <v>1029</v>
       </c>
       <c r="B858" s="7" t="s">
-        <v>5572</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24772,7 +24760,7 @@
         <v>1030</v>
       </c>
       <c r="B859" s="7" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24788,7 +24776,7 @@
         <v>1032</v>
       </c>
       <c r="B861" s="6" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24836,7 +24824,7 @@
         <v>1038</v>
       </c>
       <c r="B867" s="6" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24884,7 +24872,7 @@
         <v>1043</v>
       </c>
       <c r="B873" s="6" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24916,7 +24904,7 @@
         <v>1047</v>
       </c>
       <c r="B877" s="6" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24924,7 +24912,7 @@
         <v>1048</v>
       </c>
       <c r="B878" s="7" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24972,7 +24960,7 @@
         <v>1054</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>5153</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25052,7 +25040,7 @@
         <v>53</v>
       </c>
       <c r="B894" s="6" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25172,7 +25160,7 @@
         <v>1077</v>
       </c>
       <c r="B909" s="6" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25204,7 +25192,7 @@
         <v>1081</v>
       </c>
       <c r="B913" s="6" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25252,7 +25240,7 @@
         <v>1087</v>
       </c>
       <c r="B919" s="6" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25308,7 +25296,7 @@
         <v>1094</v>
       </c>
       <c r="B926" s="6" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25332,7 +25320,7 @@
         <v>1097</v>
       </c>
       <c r="B929" s="6" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25340,7 +25328,7 @@
         <v>1098</v>
       </c>
       <c r="B930" s="6" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25388,7 +25376,7 @@
         <v>1104</v>
       </c>
       <c r="B936" s="6" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25468,7 +25456,7 @@
         <v>1114</v>
       </c>
       <c r="B946" s="6" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25484,7 +25472,7 @@
         <v>1115</v>
       </c>
       <c r="B948" s="6" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25508,7 +25496,7 @@
         <v>1117</v>
       </c>
       <c r="B951" s="6" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25660,7 +25648,7 @@
         <v>1135</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="971" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25676,7 +25664,7 @@
         <v>1137</v>
       </c>
       <c r="B972" s="6" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="973" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25884,7 +25872,7 @@
         <v>1161</v>
       </c>
       <c r="B998" s="6" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="999" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25916,7 +25904,7 @@
         <v>1165</v>
       </c>
       <c r="B1002" s="6" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="1003" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25956,7 +25944,7 @@
         <v>1170</v>
       </c>
       <c r="B1007" s="6" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1008" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25964,7 +25952,7 @@
         <v>1171</v>
       </c>
       <c r="B1008" s="6" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="1009" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25980,7 +25968,7 @@
         <v>1173</v>
       </c>
       <c r="B1010" s="7" t="s">
-        <v>5573</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25988,7 +25976,7 @@
         <v>1174</v>
       </c>
       <c r="B1011" s="6" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -25996,7 +25984,7 @@
         <v>1175</v>
       </c>
       <c r="B1012" s="6" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="1013" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26004,7 +25992,7 @@
         <v>1176</v>
       </c>
       <c r="B1013" s="6" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26028,7 +26016,7 @@
         <v>1179</v>
       </c>
       <c r="B1016" s="6" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="1017" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26060,7 +26048,7 @@
         <v>1182</v>
       </c>
       <c r="B1020" s="6" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26100,7 +26088,7 @@
         <v>1187</v>
       </c>
       <c r="B1025" s="6" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="1026" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26124,7 +26112,7 @@
         <v>1190</v>
       </c>
       <c r="B1028" s="6" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="1029" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26228,7 +26216,7 @@
         <v>1203</v>
       </c>
       <c r="B1041" s="6" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="1042" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26244,7 +26232,7 @@
         <v>1205</v>
       </c>
       <c r="B1043" s="6" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26268,7 +26256,7 @@
         <v>1208</v>
       </c>
       <c r="B1046" s="6" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="1047" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26292,7 +26280,7 @@
         <v>1210</v>
       </c>
       <c r="B1049" s="6" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="1050" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26300,7 +26288,7 @@
         <v>1211</v>
       </c>
       <c r="B1050" s="6" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="1051" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26308,7 +26296,7 @@
         <v>1212</v>
       </c>
       <c r="B1051" s="6" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="1052" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26348,7 +26336,7 @@
         <v>1217</v>
       </c>
       <c r="B1056" s="6" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="1057" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26356,7 +26344,7 @@
         <v>1218</v>
       </c>
       <c r="B1057" s="7" t="s">
-        <v>5221</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="1058" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26372,7 +26360,7 @@
         <v>1220</v>
       </c>
       <c r="B1059" s="6" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="1060" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26444,7 +26432,7 @@
         <v>1228</v>
       </c>
       <c r="B1068" s="6" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="1069" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26460,7 +26448,7 @@
         <v>1230</v>
       </c>
       <c r="B1070" s="6" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="1071" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26476,7 +26464,7 @@
         <v>1231</v>
       </c>
       <c r="B1072" s="6" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="1073" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26508,7 +26496,7 @@
         <v>1235</v>
       </c>
       <c r="B1076" s="6" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26580,7 +26568,7 @@
         <v>1244</v>
       </c>
       <c r="B1085" s="6" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26604,7 +26592,7 @@
         <v>1247</v>
       </c>
       <c r="B1088" s="6" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="1089" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26636,7 +26624,7 @@
         <v>1251</v>
       </c>
       <c r="B1092" s="6" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="1093" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26652,7 +26640,7 @@
         <v>1253</v>
       </c>
       <c r="B1094" s="6" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="1095" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26660,7 +26648,7 @@
         <v>1254</v>
       </c>
       <c r="B1095" s="6" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="1096" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26724,7 +26712,7 @@
         <v>1261</v>
       </c>
       <c r="B1103" s="6" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26764,7 +26752,7 @@
         <v>1266</v>
       </c>
       <c r="B1108" s="6" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="1109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26796,7 +26784,7 @@
         <v>1269</v>
       </c>
       <c r="B1112" s="6" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="1113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26804,7 +26792,7 @@
         <v>1270</v>
       </c>
       <c r="B1113" s="6" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="1114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26812,7 +26800,7 @@
         <v>1271</v>
       </c>
       <c r="B1114" s="6" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="1115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26820,7 +26808,7 @@
         <v>1272</v>
       </c>
       <c r="B1115" s="6" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26828,7 +26816,7 @@
         <v>1273</v>
       </c>
       <c r="B1116" s="6" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="1117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26852,7 +26840,7 @@
         <v>1276</v>
       </c>
       <c r="B1119" s="6" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="1120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26908,7 +26896,7 @@
         <v>1282</v>
       </c>
       <c r="B1126" s="6" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="1127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26972,7 +26960,7 @@
         <v>1290</v>
       </c>
       <c r="B1134" s="6" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="1135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26980,7 +26968,7 @@
         <v>1291</v>
       </c>
       <c r="B1135" s="6" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26988,7 +26976,7 @@
         <v>1292</v>
       </c>
       <c r="B1136" s="6" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26996,7 +26984,7 @@
         <v>1293</v>
       </c>
       <c r="B1137" s="6" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="1138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27004,7 +26992,7 @@
         <v>1294</v>
       </c>
       <c r="B1138" s="6" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27012,7 +27000,7 @@
         <v>1295</v>
       </c>
       <c r="B1139" s="6" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27036,7 +27024,7 @@
         <v>1297</v>
       </c>
       <c r="B1142" s="6" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="1143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27060,7 +27048,7 @@
         <v>1300</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="1146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27068,7 +27056,7 @@
         <v>1301</v>
       </c>
       <c r="B1146" s="6" t="s">
-        <v>5214</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="1147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27084,7 +27072,7 @@
         <v>1303</v>
       </c>
       <c r="B1148" s="6" t="s">
-        <v>5215</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="1149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27124,7 +27112,7 @@
         <v>1308</v>
       </c>
       <c r="B1153" s="6" t="s">
-        <v>5216</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27140,7 +27128,7 @@
         <v>1310</v>
       </c>
       <c r="B1155" s="7" t="s">
-        <v>5574</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="1156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27148,7 +27136,7 @@
         <v>1311</v>
       </c>
       <c r="B1156" s="6" t="s">
-        <v>5217</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="1157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27156,7 +27144,7 @@
         <v>1312</v>
       </c>
       <c r="B1157" s="6" t="s">
-        <v>5218</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27164,7 +27152,7 @@
         <v>1313</v>
       </c>
       <c r="B1158" s="6" t="s">
-        <v>5219</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="1159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27236,7 +27224,7 @@
         <v>1322</v>
       </c>
       <c r="B1167" s="7" t="s">
-        <v>5222</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="1168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27348,7 +27336,7 @@
         <v>1336</v>
       </c>
       <c r="B1181" s="6" t="s">
-        <v>5220</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="1182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27412,7 +27400,7 @@
         <v>1343</v>
       </c>
       <c r="B1189" s="6" t="s">
-        <v>5223</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="1190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27420,7 +27408,7 @@
         <v>1344</v>
       </c>
       <c r="B1190" s="6" t="s">
-        <v>5224</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="1191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27428,7 +27416,7 @@
         <v>1345</v>
       </c>
       <c r="B1191" s="6" t="s">
-        <v>5225</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="1192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27468,7 +27456,7 @@
         <v>1350</v>
       </c>
       <c r="B1196" s="6" t="s">
-        <v>5226</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="1197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27476,7 +27464,7 @@
         <v>1351</v>
       </c>
       <c r="B1197" s="6" t="s">
-        <v>5227</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="1198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27492,7 +27480,7 @@
         <v>1353</v>
       </c>
       <c r="B1199" s="6" t="s">
-        <v>5228</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="1200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27516,7 +27504,7 @@
         <v>1356</v>
       </c>
       <c r="B1202" s="6" t="s">
-        <v>5229</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="1203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27524,7 +27512,7 @@
         <v>1357</v>
       </c>
       <c r="B1203" s="6" t="s">
-        <v>5230</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="1204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27532,7 +27520,7 @@
         <v>1358</v>
       </c>
       <c r="B1204" s="6" t="s">
-        <v>5231</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="1205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27580,7 +27568,7 @@
         <v>1364</v>
       </c>
       <c r="B1210" s="6" t="s">
-        <v>5232</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="1211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27588,7 +27576,7 @@
         <v>1365</v>
       </c>
       <c r="B1211" s="6" t="s">
-        <v>5233</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="1212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27596,7 +27584,7 @@
         <v>1366</v>
       </c>
       <c r="B1212" s="6" t="s">
-        <v>5234</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="1213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27604,7 +27592,7 @@
         <v>1367</v>
       </c>
       <c r="B1213" s="6" t="s">
-        <v>5235</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="1214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27612,7 +27600,7 @@
         <v>1368</v>
       </c>
       <c r="B1214" s="6" t="s">
-        <v>5236</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="1215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27620,7 +27608,7 @@
         <v>1369</v>
       </c>
       <c r="B1215" s="6" t="s">
-        <v>5237</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="1216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27636,7 +27624,7 @@
         <v>1371</v>
       </c>
       <c r="B1217" s="6" t="s">
-        <v>5238</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="1218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27644,7 +27632,7 @@
         <v>1372</v>
       </c>
       <c r="B1218" s="6" t="s">
-        <v>5239</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="1219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27660,7 +27648,7 @@
         <v>1374</v>
       </c>
       <c r="B1220" s="6" t="s">
-        <v>5240</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="1221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27668,7 +27656,7 @@
         <v>1375</v>
       </c>
       <c r="B1221" s="6" t="s">
-        <v>5241</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="1222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27700,7 +27688,7 @@
         <v>1379</v>
       </c>
       <c r="B1225" s="7" t="s">
-        <v>5337</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="1226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27748,7 +27736,7 @@
         <v>1385</v>
       </c>
       <c r="B1231" s="6" t="s">
-        <v>5242</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="1232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27756,7 +27744,7 @@
         <v>1386</v>
       </c>
       <c r="B1232" s="6" t="s">
-        <v>5243</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="1233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27772,7 +27760,7 @@
         <v>1388</v>
       </c>
       <c r="B1234" s="6" t="s">
-        <v>5244</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27780,7 +27768,7 @@
         <v>1389</v>
       </c>
       <c r="B1235" s="6" t="s">
-        <v>5245</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="1236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27812,7 +27800,7 @@
         <v>1393</v>
       </c>
       <c r="B1239" s="6" t="s">
-        <v>5246</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="1240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27852,7 +27840,7 @@
         <v>1398</v>
       </c>
       <c r="B1244" s="6" t="s">
-        <v>5247</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="1245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27860,7 +27848,7 @@
         <v>1399</v>
       </c>
       <c r="B1245" s="6" t="s">
-        <v>5248</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="1246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27868,7 +27856,7 @@
         <v>1400</v>
       </c>
       <c r="B1246" s="7" t="s">
-        <v>5338</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="1247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27876,7 +27864,7 @@
         <v>1401</v>
       </c>
       <c r="B1247" s="6" t="s">
-        <v>5249</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="1248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27884,7 +27872,7 @@
         <v>1402</v>
       </c>
       <c r="B1248" s="6" t="s">
-        <v>5250</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="1249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27892,7 +27880,7 @@
         <v>1403</v>
       </c>
       <c r="B1249" s="6" t="s">
-        <v>5251</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="1250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27900,7 +27888,7 @@
         <v>1404</v>
       </c>
       <c r="B1250" s="6" t="s">
-        <v>5252</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="1251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27916,7 +27904,7 @@
         <v>1406</v>
       </c>
       <c r="B1252" s="6" t="s">
-        <v>5253</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="1253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27924,7 +27912,7 @@
         <v>1407</v>
       </c>
       <c r="B1253" s="7" t="s">
-        <v>5339</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="1254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27940,7 +27928,7 @@
         <v>1409</v>
       </c>
       <c r="B1255" s="6" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="1256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27964,7 +27952,7 @@
         <v>1412</v>
       </c>
       <c r="B1258" s="6" t="s">
-        <v>5255</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="1259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27972,7 +27960,7 @@
         <v>1413</v>
       </c>
       <c r="B1259" s="6" t="s">
-        <v>5256</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="1260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -27988,7 +27976,7 @@
         <v>1415</v>
       </c>
       <c r="B1261" s="6" t="s">
-        <v>5257</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="1262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28004,7 +27992,7 @@
         <v>1417</v>
       </c>
       <c r="B1263" s="6" t="s">
-        <v>5258</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="1264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28012,7 +28000,7 @@
         <v>1418</v>
       </c>
       <c r="B1264" s="6" t="s">
-        <v>5259</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="1265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28028,7 +28016,7 @@
         <v>1420</v>
       </c>
       <c r="B1266" s="6" t="s">
-        <v>5260</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="1267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28036,7 +28024,7 @@
         <v>1421</v>
       </c>
       <c r="B1267" s="6" t="s">
-        <v>5261</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="1268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28044,7 +28032,7 @@
         <v>1422</v>
       </c>
       <c r="B1268" s="6" t="s">
-        <v>5262</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="1269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28052,7 +28040,7 @@
         <v>1423</v>
       </c>
       <c r="B1269" s="6" t="s">
-        <v>5263</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="1270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28060,7 +28048,7 @@
         <v>1424</v>
       </c>
       <c r="B1270" s="6" t="s">
-        <v>5264</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="1271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28068,7 +28056,7 @@
         <v>1425</v>
       </c>
       <c r="B1271" s="6" t="s">
-        <v>5265</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="1272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28076,7 +28064,7 @@
         <v>1426</v>
       </c>
       <c r="B1272" s="6" t="s">
-        <v>5266</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="1273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28108,7 +28096,7 @@
         <v>1429</v>
       </c>
       <c r="B1276" s="6" t="s">
-        <v>5267</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="1277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28132,7 +28120,7 @@
         <v>1432</v>
       </c>
       <c r="B1279" s="6" t="s">
-        <v>5268</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="1280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28140,7 +28128,7 @@
         <v>1433</v>
       </c>
       <c r="B1280" s="6" t="s">
-        <v>5269</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="1281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28148,7 +28136,7 @@
         <v>1434</v>
       </c>
       <c r="B1281" s="6" t="s">
-        <v>5270</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="1282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28156,7 +28144,7 @@
         <v>1435</v>
       </c>
       <c r="B1282" s="6" t="s">
-        <v>5271</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="1283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28164,7 +28152,7 @@
         <v>1436</v>
       </c>
       <c r="B1283" s="6" t="s">
-        <v>5272</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="1284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28172,7 +28160,7 @@
         <v>1437</v>
       </c>
       <c r="B1284" s="6" t="s">
-        <v>5273</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="1285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28212,7 +28200,7 @@
         <v>1442</v>
       </c>
       <c r="B1289" s="6" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="1290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28220,7 +28208,7 @@
         <v>1443</v>
       </c>
       <c r="B1290" s="6" t="s">
-        <v>5275</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="1291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28228,7 +28216,7 @@
         <v>1444</v>
       </c>
       <c r="B1291" s="6" t="s">
-        <v>5276</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="1292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28244,7 +28232,7 @@
         <v>1446</v>
       </c>
       <c r="B1293" s="6" t="s">
-        <v>5277</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="1294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28260,7 +28248,7 @@
         <v>1448</v>
       </c>
       <c r="B1295" s="7" t="s">
-        <v>5340</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="1296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28268,7 +28256,7 @@
         <v>1449</v>
       </c>
       <c r="B1296" s="6" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="1297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28276,7 +28264,7 @@
         <v>1450</v>
       </c>
       <c r="B1297" s="6" t="s">
-        <v>5279</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="1298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28292,7 +28280,7 @@
         <v>1452</v>
       </c>
       <c r="B1299" s="6" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="1300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28300,7 +28288,7 @@
         <v>1453</v>
       </c>
       <c r="B1300" s="6" t="s">
-        <v>5281</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="1301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28332,7 +28320,7 @@
         <v>1457</v>
       </c>
       <c r="B1304" s="6" t="s">
-        <v>5282</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="1305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28348,7 +28336,7 @@
         <v>1459</v>
       </c>
       <c r="B1306" s="6" t="s">
-        <v>5283</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="1307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28364,7 +28352,7 @@
         <v>1461</v>
       </c>
       <c r="B1308" s="6" t="s">
-        <v>5284</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="1309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28388,7 +28376,7 @@
         <v>1464</v>
       </c>
       <c r="B1311" s="6" t="s">
-        <v>5285</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="1312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28404,7 +28392,7 @@
         <v>1466</v>
       </c>
       <c r="B1313" s="6" t="s">
-        <v>5286</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28412,7 +28400,7 @@
         <v>1467</v>
       </c>
       <c r="B1314" s="7" t="s">
-        <v>5341</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="1315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28420,7 +28408,7 @@
         <v>1468</v>
       </c>
       <c r="B1315" s="6" t="s">
-        <v>5287</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="1316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28436,7 +28424,7 @@
         <v>1470</v>
       </c>
       <c r="B1317" s="6" t="s">
-        <v>5288</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28444,7 +28432,7 @@
         <v>1471</v>
       </c>
       <c r="B1318" s="6" t="s">
-        <v>5289</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28452,7 +28440,7 @@
         <v>1472</v>
       </c>
       <c r="B1319" s="6" t="s">
-        <v>5290</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28476,7 +28464,7 @@
         <v>1474</v>
       </c>
       <c r="B1322" s="6" t="s">
-        <v>5291</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28484,7 +28472,7 @@
         <v>1475</v>
       </c>
       <c r="B1323" s="6" t="s">
-        <v>5292</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="1324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28500,7 +28488,7 @@
         <v>1477</v>
       </c>
       <c r="B1325" s="6" t="s">
-        <v>5293</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28532,7 +28520,7 @@
         <v>1481</v>
       </c>
       <c r="B1329" s="6" t="s">
-        <v>5294</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="1330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28548,7 +28536,7 @@
         <v>1483</v>
       </c>
       <c r="B1331" s="6" t="s">
-        <v>5295</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="1332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28556,7 +28544,7 @@
         <v>1484</v>
       </c>
       <c r="B1332" s="6" t="s">
-        <v>5296</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="1333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28564,7 +28552,7 @@
         <v>1485</v>
       </c>
       <c r="B1333" s="6" t="s">
-        <v>5297</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="1334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28572,7 +28560,7 @@
         <v>1486</v>
       </c>
       <c r="B1334" s="6" t="s">
-        <v>5298</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="1335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28580,7 +28568,7 @@
         <v>1487</v>
       </c>
       <c r="B1335" s="6" t="s">
-        <v>5299</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="1336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28588,7 +28576,7 @@
         <v>76</v>
       </c>
       <c r="B1336" s="6" t="s">
-        <v>5300</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="1337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28596,7 +28584,7 @@
         <v>1488</v>
       </c>
       <c r="B1337" s="6" t="s">
-        <v>5301</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="1338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28604,7 +28592,7 @@
         <v>1489</v>
       </c>
       <c r="B1338" s="6" t="s">
-        <v>5302</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="1339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28612,7 +28600,7 @@
         <v>1490</v>
       </c>
       <c r="B1339" s="6" t="s">
-        <v>5303</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="1340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28652,7 +28640,7 @@
         <v>1495</v>
       </c>
       <c r="B1344" s="6" t="s">
-        <v>5304</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="1345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28660,7 +28648,7 @@
         <v>1496</v>
       </c>
       <c r="B1345" s="6" t="s">
-        <v>5305</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="1346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28668,7 +28656,7 @@
         <v>1497</v>
       </c>
       <c r="B1346" s="6" t="s">
-        <v>5306</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="1347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28676,7 +28664,7 @@
         <v>1498</v>
       </c>
       <c r="B1347" s="6" t="s">
-        <v>5307</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="1348" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28684,7 +28672,7 @@
         <v>1499</v>
       </c>
       <c r="B1348" s="6" t="s">
-        <v>5308</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28700,7 +28688,7 @@
         <v>1501</v>
       </c>
       <c r="B1350" s="6" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="1351" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28708,7 +28696,7 @@
         <v>1502</v>
       </c>
       <c r="B1351" s="6" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28716,7 +28704,7 @@
         <v>1503</v>
       </c>
       <c r="B1352" s="6" t="s">
-        <v>5311</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28724,7 +28712,7 @@
         <v>1504</v>
       </c>
       <c r="B1353" s="6" t="s">
-        <v>5312</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="1354" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28732,7 +28720,7 @@
         <v>1505</v>
       </c>
       <c r="B1354" s="6" t="s">
-        <v>5313</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="1355" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28740,7 +28728,7 @@
         <v>1506</v>
       </c>
       <c r="B1355" s="6" t="s">
-        <v>5314</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="1356" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28748,7 +28736,7 @@
         <v>1507</v>
       </c>
       <c r="B1356" s="6" t="s">
-        <v>5315</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="1357" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28756,7 +28744,7 @@
         <v>1508</v>
       </c>
       <c r="B1357" s="6" t="s">
-        <v>5316</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="1358" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28764,7 +28752,7 @@
         <v>1509</v>
       </c>
       <c r="B1358" s="6" t="s">
-        <v>5317</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="1359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28780,7 +28768,7 @@
         <v>1511</v>
       </c>
       <c r="B1360" s="6" t="s">
-        <v>5318</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="1361" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28812,7 +28800,7 @@
         <v>1514</v>
       </c>
       <c r="B1364" s="6" t="s">
-        <v>5319</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="1365" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28820,7 +28808,7 @@
         <v>1515</v>
       </c>
       <c r="B1365" s="6" t="s">
-        <v>5320</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="1366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28860,7 +28848,7 @@
         <v>1520</v>
       </c>
       <c r="B1370" s="6" t="s">
-        <v>5321</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="1371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28876,7 +28864,7 @@
         <v>1522</v>
       </c>
       <c r="B1372" s="6" t="s">
-        <v>5322</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="1373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28884,7 +28872,7 @@
         <v>1523</v>
       </c>
       <c r="B1373" s="6" t="s">
-        <v>5323</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="1374" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28900,7 +28888,7 @@
         <v>1525</v>
       </c>
       <c r="B1375" s="6" t="s">
-        <v>5324</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="1376" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28924,7 +28912,7 @@
         <v>1528</v>
       </c>
       <c r="B1378" s="6" t="s">
-        <v>5325</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="1379" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28940,7 +28928,7 @@
         <v>1530</v>
       </c>
       <c r="B1380" s="6" t="s">
-        <v>5326</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="1381" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28948,7 +28936,7 @@
         <v>1531</v>
       </c>
       <c r="B1381" s="6" t="s">
-        <v>5327</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="1382" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28964,7 +28952,7 @@
         <v>1533</v>
       </c>
       <c r="B1383" s="6" t="s">
-        <v>5328</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="1384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -28996,7 +28984,7 @@
         <v>1537</v>
       </c>
       <c r="B1387" s="6" t="s">
-        <v>5329</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="1388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29044,7 +29032,7 @@
         <v>1543</v>
       </c>
       <c r="B1393" s="6" t="s">
-        <v>5330</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="1394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29060,7 +29048,7 @@
         <v>1544</v>
       </c>
       <c r="B1395" s="6" t="s">
-        <v>5331</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="1396" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29068,7 +29056,7 @@
         <v>1545</v>
       </c>
       <c r="B1396" s="6" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="1397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29076,7 +29064,7 @@
         <v>80</v>
       </c>
       <c r="B1397" s="6" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="1398" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29092,7 +29080,7 @@
         <v>1547</v>
       </c>
       <c r="B1399" s="6" t="s">
-        <v>5334</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="1400" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29100,7 +29088,7 @@
         <v>1548</v>
       </c>
       <c r="B1400" s="6" t="s">
-        <v>5335</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="1401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29108,7 +29096,7 @@
         <v>1549</v>
       </c>
       <c r="B1401" s="6" t="s">
-        <v>5336</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="1402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40500,7 +40488,7 @@
         <v>2916</v>
       </c>
       <c r="B2825" s="8" t="s">
-        <v>5342</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="2826" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40508,7 +40496,7 @@
         <v>2917</v>
       </c>
       <c r="B2826" s="8" t="s">
-        <v>5343</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40596,7 +40584,7 @@
         <v>2926</v>
       </c>
       <c r="B2837" s="8" t="s">
-        <v>5344</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2838" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40604,7 +40592,7 @@
         <v>2927</v>
       </c>
       <c r="B2838" s="8" t="s">
-        <v>5345</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="2839" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40612,7 +40600,7 @@
         <v>2928</v>
       </c>
       <c r="B2839" s="8" t="s">
-        <v>5346</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="2840" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40660,7 +40648,7 @@
         <v>2934</v>
       </c>
       <c r="B2845" s="8" t="s">
-        <v>5347</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="2846" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40668,7 +40656,7 @@
         <v>2935</v>
       </c>
       <c r="B2846" s="8" t="s">
-        <v>5348</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="2847" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40676,7 +40664,7 @@
         <v>2936</v>
       </c>
       <c r="B2847" s="8" t="s">
-        <v>5349</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="2848" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40684,7 +40672,7 @@
         <v>2937</v>
       </c>
       <c r="B2848" s="8" t="s">
-        <v>5350</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="2849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40700,7 +40688,7 @@
         <v>2939</v>
       </c>
       <c r="B2850" s="9" t="s">
-        <v>5353</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="2851" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40724,7 +40712,7 @@
         <v>2942</v>
       </c>
       <c r="B2853" s="8" t="s">
-        <v>5351</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="2854" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40732,7 +40720,7 @@
         <v>2943</v>
       </c>
       <c r="B2854" s="9" t="s">
-        <v>5354</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="2855" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40748,7 +40736,7 @@
         <v>2944</v>
       </c>
       <c r="B2856" s="8" t="s">
-        <v>5352</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2857" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40804,7 +40792,7 @@
         <v>2951</v>
       </c>
       <c r="B2863" s="8" t="s">
-        <v>5355</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="2864" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40836,7 +40824,7 @@
         <v>2955</v>
       </c>
       <c r="B2867" s="8" t="s">
-        <v>5356</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="2868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40844,7 +40832,7 @@
         <v>2956</v>
       </c>
       <c r="B2868" s="8" t="s">
-        <v>5357</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="2869" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40852,7 +40840,7 @@
         <v>2957</v>
       </c>
       <c r="B2869" s="8" t="s">
-        <v>5358</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="2870" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40876,7 +40864,7 @@
         <v>2960</v>
       </c>
       <c r="B2872" s="8" t="s">
-        <v>5359</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="2873" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -40916,7 +40904,7 @@
         <v>2965</v>
       </c>
       <c r="B2877" s="8" t="s">
-        <v>5360</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="2878" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41004,7 +40992,7 @@
         <v>2976</v>
       </c>
       <c r="B2888" s="8" t="s">
-        <v>5361</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="2889" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41012,7 +41000,7 @@
         <v>2977</v>
       </c>
       <c r="B2889" s="8" t="s">
-        <v>5362</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="2890" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41028,7 +41016,7 @@
         <v>2979</v>
       </c>
       <c r="B2891" s="8" t="s">
-        <v>5363</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="2892" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41068,7 +41056,7 @@
         <v>2983</v>
       </c>
       <c r="B2896" s="8" t="s">
-        <v>5364</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="2897" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41076,7 +41064,7 @@
         <v>2984</v>
       </c>
       <c r="B2897" s="8" t="s">
-        <v>5365</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="2898" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41084,7 +41072,7 @@
         <v>2985</v>
       </c>
       <c r="B2898" s="8" t="s">
-        <v>5366</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="2899" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41132,7 +41120,7 @@
         <v>2991</v>
       </c>
       <c r="B2904" s="8" t="s">
-        <v>5367</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="2905" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41172,7 +41160,7 @@
         <v>2996</v>
       </c>
       <c r="B2909" s="9" t="s">
-        <v>5400</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="2910" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41180,7 +41168,7 @@
         <v>163</v>
       </c>
       <c r="B2910" s="8" t="s">
-        <v>5368</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="2911" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41204,7 +41192,7 @@
         <v>2999</v>
       </c>
       <c r="B2913" s="8" t="s">
-        <v>5369</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="2914" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41220,7 +41208,7 @@
         <v>3001</v>
       </c>
       <c r="B2915" s="9" t="s">
-        <v>5401</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="2916" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41260,7 +41248,7 @@
         <v>3006</v>
       </c>
       <c r="B2920" s="8" t="s">
-        <v>5370</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="2921" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41276,7 +41264,7 @@
         <v>3008</v>
       </c>
       <c r="B2922" s="8" t="s">
-        <v>5371</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="2923" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41348,7 +41336,7 @@
         <v>3017</v>
       </c>
       <c r="B2931" s="9" t="s">
-        <v>5402</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="2932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41396,7 +41384,7 @@
         <v>3022</v>
       </c>
       <c r="B2937" s="8" t="s">
-        <v>5372</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="2938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41428,7 +41416,7 @@
         <v>3025</v>
       </c>
       <c r="B2941" s="9" t="s">
-        <v>5403</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="2942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41444,7 +41432,7 @@
         <v>3027</v>
       </c>
       <c r="B2943" s="8" t="s">
-        <v>5373</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="2944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41468,7 +41456,7 @@
         <v>3030</v>
       </c>
       <c r="B2946" s="9" t="s">
-        <v>5404</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="2947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41476,7 +41464,7 @@
         <v>3031</v>
       </c>
       <c r="B2947" s="8" t="s">
-        <v>5374</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="2948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41484,7 +41472,7 @@
         <v>3032</v>
       </c>
       <c r="B2948" s="8" t="s">
-        <v>5375</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="2949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41492,7 +41480,7 @@
         <v>3033</v>
       </c>
       <c r="B2949" s="8" t="s">
-        <v>5376</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="2950" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41500,7 +41488,7 @@
         <v>3034</v>
       </c>
       <c r="B2950" s="9" t="s">
-        <v>5405</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="2951" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41532,7 +41520,7 @@
         <v>3038</v>
       </c>
       <c r="B2954" s="8" t="s">
-        <v>5377</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="2955" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41540,7 +41528,7 @@
         <v>3039</v>
       </c>
       <c r="B2955" s="9" t="s">
-        <v>5406</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="2956" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41548,7 +41536,7 @@
         <v>3040</v>
       </c>
       <c r="B2956" s="9" t="s">
-        <v>5407</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="2957" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41564,7 +41552,7 @@
         <v>3042</v>
       </c>
       <c r="B2958" s="8" t="s">
-        <v>5378</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="2959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41588,7 +41576,7 @@
         <v>3044</v>
       </c>
       <c r="B2961" s="8" t="s">
-        <v>5379</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="2962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41692,7 +41680,7 @@
         <v>3054</v>
       </c>
       <c r="B2974" s="8" t="s">
-        <v>5380</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="2975" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41708,7 +41696,7 @@
         <v>3056</v>
       </c>
       <c r="B2976" s="9" t="s">
-        <v>5408</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="2977" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41804,7 +41792,7 @@
         <v>3068</v>
       </c>
       <c r="B2988" s="8" t="s">
-        <v>5381</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="2989" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41828,7 +41816,7 @@
         <v>3071</v>
       </c>
       <c r="B2991" s="8" t="s">
-        <v>5382</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="2992" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41876,7 +41864,7 @@
         <v>3077</v>
       </c>
       <c r="B2997" s="8" t="s">
-        <v>5383</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="2998" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41932,7 +41920,7 @@
         <v>3084</v>
       </c>
       <c r="B3004" s="9" t="s">
-        <v>5409</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="3005" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41964,7 +41952,7 @@
         <v>3088</v>
       </c>
       <c r="B3008" s="8" t="s">
-        <v>5384</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="3009" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -41972,7 +41960,7 @@
         <v>3089</v>
       </c>
       <c r="B3009" s="8" t="s">
-        <v>5385</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="3010" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42020,7 +42008,7 @@
         <v>3095</v>
       </c>
       <c r="B3015" s="9" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="3016" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42068,7 +42056,7 @@
         <v>3101</v>
       </c>
       <c r="B3021" s="8" t="s">
-        <v>5386</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="3022" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42076,7 +42064,7 @@
         <v>3102</v>
       </c>
       <c r="B3022" s="8" t="s">
-        <v>5387</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="3023" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42084,7 +42072,7 @@
         <v>3103</v>
       </c>
       <c r="B3023" s="8" t="s">
-        <v>5388</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="3024" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42108,7 +42096,7 @@
         <v>3106</v>
       </c>
       <c r="B3026" s="8" t="s">
-        <v>5389</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="3027" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42132,7 +42120,7 @@
         <v>3109</v>
       </c>
       <c r="B3029" s="8" t="s">
-        <v>5390</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="3030" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42204,7 +42192,7 @@
         <v>3118</v>
       </c>
       <c r="B3038" s="9" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="3039" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42388,7 +42376,7 @@
         <v>3138</v>
       </c>
       <c r="B3061" s="8" t="s">
-        <v>5391</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="3062" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42396,7 +42384,7 @@
         <v>3139</v>
       </c>
       <c r="B3062" s="8" t="s">
-        <v>5392</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="3063" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42404,7 +42392,7 @@
         <v>3140</v>
       </c>
       <c r="B3063" s="8" t="s">
-        <v>5393</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="3064" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42412,7 +42400,7 @@
         <v>3141</v>
       </c>
       <c r="B3064" s="8" t="s">
-        <v>5394</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="3065" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42420,7 +42408,7 @@
         <v>3142</v>
       </c>
       <c r="B3065" s="8" t="s">
-        <v>5395</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="3066" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42428,7 +42416,7 @@
         <v>3143</v>
       </c>
       <c r="B3066" s="8" t="s">
-        <v>5396</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="3067" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42436,7 +42424,7 @@
         <v>3144</v>
       </c>
       <c r="B3067" s="9" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="3068" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42444,7 +42432,7 @@
         <v>3145</v>
       </c>
       <c r="B3068" s="9" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="3069" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42452,7 +42440,7 @@
         <v>3146</v>
       </c>
       <c r="B3069" s="8" t="s">
-        <v>5397</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="3070" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42572,7 +42560,7 @@
         <v>3161</v>
       </c>
       <c r="B3084" s="9" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="3085" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42660,7 +42648,7 @@
         <v>3171</v>
       </c>
       <c r="B3095" s="8" t="s">
-        <v>5398</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="3096" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42676,7 +42664,7 @@
         <v>3172</v>
       </c>
       <c r="B3097" s="8" t="s">
-        <v>5399</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="3098" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42732,7 +42720,7 @@
         <v>3179</v>
       </c>
       <c r="B3104" s="8" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="3105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42788,7 +42776,7 @@
         <v>3186</v>
       </c>
       <c r="B3111" s="8" t="s">
-        <v>5416</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="3112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42796,7 +42784,7 @@
         <v>3187</v>
       </c>
       <c r="B3112" s="8" t="s">
-        <v>5417</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="3113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42844,7 +42832,7 @@
         <v>3193</v>
       </c>
       <c r="B3118" s="8" t="s">
-        <v>5418</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="3119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42876,7 +42864,7 @@
         <v>3197</v>
       </c>
       <c r="B3122" s="9" t="s">
-        <v>5521</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="3123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42884,7 +42872,7 @@
         <v>3198</v>
       </c>
       <c r="B3123" s="9" t="s">
-        <v>5522</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="3124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42892,7 +42880,7 @@
         <v>3199</v>
       </c>
       <c r="B3124" s="9" t="s">
-        <v>5523</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="3125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42900,7 +42888,7 @@
         <v>3200</v>
       </c>
       <c r="B3125" s="9" t="s">
-        <v>5524</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="3126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42908,7 +42896,7 @@
         <v>3201</v>
       </c>
       <c r="B3126" s="9" t="s">
-        <v>5525</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="3127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42916,7 +42904,7 @@
         <v>3202</v>
       </c>
       <c r="B3127" s="8" t="s">
-        <v>5419</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="3128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42980,7 +42968,7 @@
         <v>3210</v>
       </c>
       <c r="B3135" s="8" t="s">
-        <v>5420</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="3136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42988,7 +42976,7 @@
         <v>3211</v>
       </c>
       <c r="B3136" s="9" t="s">
-        <v>5526</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="3137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -42996,7 +42984,7 @@
         <v>3212</v>
       </c>
       <c r="B3137" s="9" t="s">
-        <v>5527</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="3138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43004,7 +42992,7 @@
         <v>3213</v>
       </c>
       <c r="B3138" s="9" t="s">
-        <v>5528</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="3139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43028,7 +43016,7 @@
         <v>3215</v>
       </c>
       <c r="B3141" s="8" t="s">
-        <v>5421</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="3142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43084,7 +43072,7 @@
         <v>3222</v>
       </c>
       <c r="B3148" s="8" t="s">
-        <v>5422</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="3149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43100,7 +43088,7 @@
         <v>3224</v>
       </c>
       <c r="B3150" s="9" t="s">
-        <v>5529</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="3151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43116,7 +43104,7 @@
         <v>3226</v>
       </c>
       <c r="B3152" s="9" t="s">
-        <v>5530</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="3153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43124,7 +43112,7 @@
         <v>3227</v>
       </c>
       <c r="B3153" s="8" t="s">
-        <v>5423</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="3154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43148,7 +43136,7 @@
         <v>3230</v>
       </c>
       <c r="B3156" s="8" t="s">
-        <v>5424</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="3157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43180,7 +43168,7 @@
         <v>3234</v>
       </c>
       <c r="B3160" s="8" t="s">
-        <v>5425</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="3161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43236,7 +43224,7 @@
         <v>3240</v>
       </c>
       <c r="B3167" s="9" t="s">
-        <v>5531</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="3168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43244,7 +43232,7 @@
         <v>3241</v>
       </c>
       <c r="B3168" s="8" t="s">
-        <v>5426</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="3169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43252,7 +43240,7 @@
         <v>3242</v>
       </c>
       <c r="B3169" s="9" t="s">
-        <v>5532</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="3170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43268,7 +43256,7 @@
         <v>3244</v>
       </c>
       <c r="B3171" s="9" t="s">
-        <v>5533</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="3172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43276,7 +43264,7 @@
         <v>3245</v>
       </c>
       <c r="B3172" s="8" t="s">
-        <v>5427</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="3173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43284,7 +43272,7 @@
         <v>3246</v>
       </c>
       <c r="B3173" s="8" t="s">
-        <v>5428</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="3174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43308,7 +43296,7 @@
         <v>3249</v>
       </c>
       <c r="B3176" s="8" t="s">
-        <v>5429</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="3177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43316,7 +43304,7 @@
         <v>3250</v>
       </c>
       <c r="B3177" s="8" t="s">
-        <v>5430</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="3178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43324,7 +43312,7 @@
         <v>3251</v>
       </c>
       <c r="B3178" s="8" t="s">
-        <v>5431</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="3179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43332,7 +43320,7 @@
         <v>3252</v>
       </c>
       <c r="B3179" s="9" t="s">
-        <v>5534</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="3180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43340,7 +43328,7 @@
         <v>3253</v>
       </c>
       <c r="B3180" s="9" t="s">
-        <v>5535</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="3181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43348,7 +43336,7 @@
         <v>3254</v>
       </c>
       <c r="B3181" s="8" t="s">
-        <v>5432</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="3182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43364,7 +43352,7 @@
         <v>3256</v>
       </c>
       <c r="B3183" s="8" t="s">
-        <v>5433</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="3184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43372,7 +43360,7 @@
         <v>3257</v>
       </c>
       <c r="B3184" s="9" t="s">
-        <v>5536</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="3185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43380,7 +43368,7 @@
         <v>3258</v>
       </c>
       <c r="B3185" s="9" t="s">
-        <v>5537</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="3186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43420,7 +43408,7 @@
         <v>3263</v>
       </c>
       <c r="B3190" s="8" t="s">
-        <v>5434</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="3191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43476,7 +43464,7 @@
         <v>3270</v>
       </c>
       <c r="B3197" s="9" t="s">
-        <v>5538</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="3198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43484,7 +43472,7 @@
         <v>3271</v>
       </c>
       <c r="B3198" s="9" t="s">
-        <v>5539</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="3199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43492,7 +43480,7 @@
         <v>3272</v>
       </c>
       <c r="B3199" s="9" t="s">
-        <v>5540</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="3200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43508,7 +43496,7 @@
         <v>181</v>
       </c>
       <c r="B3201" s="8" t="s">
-        <v>5435</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="3202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43516,7 +43504,7 @@
         <v>3274</v>
       </c>
       <c r="B3202" s="8" t="s">
-        <v>5436</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="3203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43524,7 +43512,7 @@
         <v>3275</v>
       </c>
       <c r="B3203" s="9" t="s">
-        <v>5541</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="3204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43532,7 +43520,7 @@
         <v>3276</v>
       </c>
       <c r="B3204" s="9" t="s">
-        <v>5542</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="3205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43540,7 +43528,7 @@
         <v>3277</v>
       </c>
       <c r="B3205" s="8" t="s">
-        <v>5437</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="3206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43548,7 +43536,7 @@
         <v>3278</v>
       </c>
       <c r="B3206" s="8" t="s">
-        <v>5438</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="3207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43580,7 +43568,7 @@
         <v>3282</v>
       </c>
       <c r="B3210" s="8" t="s">
-        <v>5439</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="3211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43588,7 +43576,7 @@
         <v>3283</v>
       </c>
       <c r="B3211" s="8" t="s">
-        <v>5440</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="3212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43604,7 +43592,7 @@
         <v>3285</v>
       </c>
       <c r="B3213" s="8" t="s">
-        <v>5441</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="3214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43612,7 +43600,7 @@
         <v>3286</v>
       </c>
       <c r="B3214" s="8" t="s">
-        <v>5442</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="3215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43628,7 +43616,7 @@
         <v>183</v>
       </c>
       <c r="B3216" s="9" t="s">
-        <v>5543</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="3217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43652,7 +43640,7 @@
         <v>3289</v>
       </c>
       <c r="B3219" s="9" t="s">
-        <v>5544</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="3220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43668,7 +43656,7 @@
         <v>3291</v>
       </c>
       <c r="B3221" s="8" t="s">
-        <v>5443</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="3222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43708,7 +43696,7 @@
         <v>3296</v>
       </c>
       <c r="B3226" s="8" t="s">
-        <v>5444</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="3227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43748,7 +43736,7 @@
         <v>3301</v>
       </c>
       <c r="B3231" s="8" t="s">
-        <v>5445</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="3232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43764,7 +43752,7 @@
         <v>3303</v>
       </c>
       <c r="B3233" s="9" t="s">
-        <v>5545</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="3234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43772,7 +43760,7 @@
         <v>3304</v>
       </c>
       <c r="B3234" s="8" t="s">
-        <v>5446</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="3235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43804,7 +43792,7 @@
         <v>3307</v>
       </c>
       <c r="B3238" s="8" t="s">
-        <v>5447</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="3239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43820,7 +43808,7 @@
         <v>3309</v>
       </c>
       <c r="B3240" s="8" t="s">
-        <v>5448</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="3241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43828,7 +43816,7 @@
         <v>3310</v>
       </c>
       <c r="B3241" s="8" t="s">
-        <v>5449</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="3242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43836,7 +43824,7 @@
         <v>3311</v>
       </c>
       <c r="B3242" s="8" t="s">
-        <v>5450</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="3243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43852,7 +43840,7 @@
         <v>3313</v>
       </c>
       <c r="B3244" s="9" t="s">
-        <v>5546</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="3245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43860,7 +43848,7 @@
         <v>3314</v>
       </c>
       <c r="B3245" s="8" t="s">
-        <v>5451</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="3246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43868,7 +43856,7 @@
         <v>3315</v>
       </c>
       <c r="B3246" s="8" t="s">
-        <v>5452</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="3247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43876,7 +43864,7 @@
         <v>3316</v>
       </c>
       <c r="B3247" s="8" t="s">
-        <v>5450</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="3248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43900,7 +43888,7 @@
         <v>3319</v>
       </c>
       <c r="B3250" s="8" t="s">
-        <v>5453</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="3251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43916,7 +43904,7 @@
         <v>3321</v>
       </c>
       <c r="B3252" s="8" t="s">
-        <v>5454</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="3253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43924,7 +43912,7 @@
         <v>3322</v>
       </c>
       <c r="B3253" s="8" t="s">
-        <v>5455</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="3254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43940,7 +43928,7 @@
         <v>3324</v>
       </c>
       <c r="B3255" s="8" t="s">
-        <v>5456</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="3256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43972,7 +43960,7 @@
         <v>3328</v>
       </c>
       <c r="B3259" s="8" t="s">
-        <v>5457</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="3260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -43988,7 +43976,7 @@
         <v>3330</v>
       </c>
       <c r="B3261" s="8" t="s">
-        <v>5458</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="3262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44004,7 +43992,7 @@
         <v>3332</v>
       </c>
       <c r="B3263" s="8" t="s">
-        <v>5459</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="3264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44020,7 +44008,7 @@
         <v>3334</v>
       </c>
       <c r="B3265" s="8" t="s">
-        <v>5460</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="3266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44060,7 +44048,7 @@
         <v>3339</v>
       </c>
       <c r="B3270" s="8" t="s">
-        <v>5461</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="3271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44068,7 +44056,7 @@
         <v>3340</v>
       </c>
       <c r="B3271" s="9" t="s">
-        <v>5547</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="3272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44084,7 +44072,7 @@
         <v>3342</v>
       </c>
       <c r="B3273" s="9" t="s">
-        <v>5548</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="3274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44092,7 +44080,7 @@
         <v>3343</v>
       </c>
       <c r="B3274" s="8" t="s">
-        <v>5462</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="3275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44100,7 +44088,7 @@
         <v>3344</v>
       </c>
       <c r="B3275" s="9" t="s">
-        <v>5549</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="3276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44116,7 +44104,7 @@
         <v>3346</v>
       </c>
       <c r="B3277" s="9" t="s">
-        <v>5550</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="3278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44180,7 +44168,7 @@
         <v>3354</v>
       </c>
       <c r="B3285" s="8" t="s">
-        <v>5463</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="3286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44188,7 +44176,7 @@
         <v>3355</v>
       </c>
       <c r="B3286" s="9" t="s">
-        <v>5551</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="3287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44204,7 +44192,7 @@
         <v>3357</v>
       </c>
       <c r="B3288" s="8" t="s">
-        <v>5464</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="3289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44212,7 +44200,7 @@
         <v>3358</v>
       </c>
       <c r="B3289" s="8" t="s">
-        <v>5465</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="3290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44220,7 +44208,7 @@
         <v>3359</v>
       </c>
       <c r="B3290" s="8" t="s">
-        <v>5466</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="3291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44252,7 +44240,7 @@
         <v>3363</v>
       </c>
       <c r="B3294" s="9" t="s">
-        <v>5552</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="3295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44284,7 +44272,7 @@
         <v>3367</v>
       </c>
       <c r="B3298" s="8" t="s">
-        <v>5467</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="3299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44292,7 +44280,7 @@
         <v>3368</v>
       </c>
       <c r="B3299" s="8" t="s">
-        <v>5468</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="3300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44300,7 +44288,7 @@
         <v>3369</v>
       </c>
       <c r="B3300" s="8" t="s">
-        <v>5469</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="3301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44308,7 +44296,7 @@
         <v>185</v>
       </c>
       <c r="B3301" s="8" t="s">
-        <v>5470</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="3302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44316,7 +44304,7 @@
         <v>3370</v>
       </c>
       <c r="B3302" s="8" t="s">
-        <v>5471</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="3303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44324,7 +44312,7 @@
         <v>3371</v>
       </c>
       <c r="B3303" s="8" t="s">
-        <v>5472</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="3304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44332,7 +44320,7 @@
         <v>3372</v>
       </c>
       <c r="B3304" s="8" t="s">
-        <v>5473</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="3305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44340,7 +44328,7 @@
         <v>3373</v>
       </c>
       <c r="B3305" s="8" t="s">
-        <v>5474</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="3306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44348,7 +44336,7 @@
         <v>3374</v>
       </c>
       <c r="B3306" s="8" t="s">
-        <v>5475</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="3307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44356,7 +44344,7 @@
         <v>3375</v>
       </c>
       <c r="B3307" s="8" t="s">
-        <v>5476</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="3308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44364,7 +44352,7 @@
         <v>3376</v>
       </c>
       <c r="B3308" s="8" t="s">
-        <v>5477</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="3309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44372,7 +44360,7 @@
         <v>3377</v>
       </c>
       <c r="B3309" s="8" t="s">
-        <v>5478</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="3310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44380,7 +44368,7 @@
         <v>3378</v>
       </c>
       <c r="B3310" s="8" t="s">
-        <v>5479</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="3311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44396,7 +44384,7 @@
         <v>3380</v>
       </c>
       <c r="B3312" s="9" t="s">
-        <v>5553</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="3313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44404,7 +44392,7 @@
         <v>3381</v>
       </c>
       <c r="B3313" s="8" t="s">
-        <v>5480</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="3314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44412,7 +44400,7 @@
         <v>3382</v>
       </c>
       <c r="B3314" s="8" t="s">
-        <v>5481</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="3315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44420,7 +44408,7 @@
         <v>3383</v>
       </c>
       <c r="B3315" s="8" t="s">
-        <v>5482</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="3316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44428,7 +44416,7 @@
         <v>3384</v>
       </c>
       <c r="B3316" s="8" t="s">
-        <v>5483</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="3317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44436,7 +44424,7 @@
         <v>3385</v>
       </c>
       <c r="B3317" s="8" t="s">
-        <v>5484</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="3318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44452,7 +44440,7 @@
         <v>3387</v>
       </c>
       <c r="B3319" s="9" t="s">
-        <v>5554</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="3320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44460,7 +44448,7 @@
         <v>3388</v>
       </c>
       <c r="B3320" s="8" t="s">
-        <v>5485</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="3321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44468,7 +44456,7 @@
         <v>3389</v>
       </c>
       <c r="B3321" s="8" t="s">
-        <v>5486</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="3322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44476,7 +44464,7 @@
         <v>3390</v>
       </c>
       <c r="B3322" s="8" t="s">
-        <v>5487</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="3323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44492,7 +44480,7 @@
         <v>3392</v>
       </c>
       <c r="B3324" s="8" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="3325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44500,7 +44488,7 @@
         <v>3393</v>
       </c>
       <c r="B3325" s="8" t="s">
-        <v>5489</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="3326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44508,7 +44496,7 @@
         <v>3394</v>
       </c>
       <c r="B3326" s="8" t="s">
-        <v>5490</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="3327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44524,7 +44512,7 @@
         <v>3396</v>
       </c>
       <c r="B3328" s="8" t="s">
-        <v>5491</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="3329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44532,7 +44520,7 @@
         <v>3397</v>
       </c>
       <c r="B3329" s="8" t="s">
-        <v>5492</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="3330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44556,7 +44544,7 @@
         <v>3400</v>
       </c>
       <c r="B3332" s="8" t="s">
-        <v>5493</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="3333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44572,7 +44560,7 @@
         <v>3402</v>
       </c>
       <c r="B3334" s="9" t="s">
-        <v>5555</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="3335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44604,7 +44592,7 @@
         <v>3406</v>
       </c>
       <c r="B3338" s="8" t="s">
-        <v>5494</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="3339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44612,7 +44600,7 @@
         <v>3407</v>
       </c>
       <c r="B3339" s="8" t="s">
-        <v>5495</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="3340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44644,7 +44632,7 @@
         <v>186</v>
       </c>
       <c r="B3343" s="8" t="s">
-        <v>5496</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="3344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44652,7 +44640,7 @@
         <v>3411</v>
       </c>
       <c r="B3344" s="8" t="s">
-        <v>5497</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="3345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44660,7 +44648,7 @@
         <v>3412</v>
       </c>
       <c r="B3345" s="8" t="s">
-        <v>5498</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="3346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44764,7 +44752,7 @@
         <v>3425</v>
       </c>
       <c r="B3358" s="8" t="s">
-        <v>5499</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="3359" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44796,7 +44784,7 @@
         <v>3429</v>
       </c>
       <c r="B3362" s="8" t="s">
-        <v>5500</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="3363" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44820,7 +44808,7 @@
         <v>3432</v>
       </c>
       <c r="B3365" s="9" t="s">
-        <v>5556</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="3366" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44828,7 +44816,7 @@
         <v>3433</v>
       </c>
       <c r="B3366" s="8" t="s">
-        <v>5501</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="3367" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44844,7 +44832,7 @@
         <v>187</v>
       </c>
       <c r="B3368" s="9" t="s">
-        <v>5557</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="3369" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44852,7 +44840,7 @@
         <v>3435</v>
       </c>
       <c r="B3369" s="9" t="s">
-        <v>5558</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="3370" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44860,7 +44848,7 @@
         <v>3436</v>
       </c>
       <c r="B3370" s="8" t="s">
-        <v>5502</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="3371" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44876,7 +44864,7 @@
         <v>3438</v>
       </c>
       <c r="B3372" s="8" t="s">
-        <v>5503</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="3373" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44964,7 +44952,7 @@
         <v>3449</v>
       </c>
       <c r="B3383" s="9" t="s">
-        <v>5559</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="3384" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44972,7 +44960,7 @@
         <v>3450</v>
       </c>
       <c r="B3384" s="9" t="s">
-        <v>5560</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="3385" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44980,7 +44968,7 @@
         <v>3451</v>
       </c>
       <c r="B3385" s="9" t="s">
-        <v>5561</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="3386" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -44996,7 +44984,7 @@
         <v>3453</v>
       </c>
       <c r="B3387" s="8" t="s">
-        <v>5504</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="3388" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45004,7 +44992,7 @@
         <v>3454</v>
       </c>
       <c r="B3388" s="8" t="s">
-        <v>5505</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="3389" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45012,7 +45000,7 @@
         <v>3455</v>
       </c>
       <c r="B3389" s="9" t="s">
-        <v>5562</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="3390" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45020,7 +45008,7 @@
         <v>3456</v>
       </c>
       <c r="B3390" s="8" t="s">
-        <v>5506</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="3391" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45044,7 +45032,7 @@
         <v>3459</v>
       </c>
       <c r="B3393" s="8" t="s">
-        <v>5507</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="3394" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45052,7 +45040,7 @@
         <v>3460</v>
       </c>
       <c r="B3394" s="9" t="s">
-        <v>5563</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="3395" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45068,7 +45056,7 @@
         <v>3462</v>
       </c>
       <c r="B3396" s="8" t="s">
-        <v>5508</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="3397" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45100,7 +45088,7 @@
         <v>3466</v>
       </c>
       <c r="B3400" s="8" t="s">
-        <v>5509</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="3401" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45108,7 +45096,7 @@
         <v>3467</v>
       </c>
       <c r="B3401" s="8" t="s">
-        <v>5510</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="3402" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45116,7 +45104,7 @@
         <v>3468</v>
       </c>
       <c r="B3402" s="9" t="s">
-        <v>5564</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="3403" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45148,7 +45136,7 @@
         <v>188</v>
       </c>
       <c r="B3406" s="8" t="s">
-        <v>5511</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="3407" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45188,7 +45176,7 @@
         <v>3476</v>
       </c>
       <c r="B3411" s="8" t="s">
-        <v>5512</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="3412" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45196,7 +45184,7 @@
         <v>3477</v>
       </c>
       <c r="B3412" s="9" t="s">
-        <v>5565</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="3413" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45252,7 +45240,7 @@
         <v>3484</v>
       </c>
       <c r="B3419" s="8" t="s">
-        <v>5513</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="3420" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45324,7 +45312,7 @@
         <v>3493</v>
       </c>
       <c r="B3428" s="8" t="s">
-        <v>5514</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="3429" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45412,7 +45400,7 @@
         <v>3504</v>
       </c>
       <c r="B3439" s="8" t="s">
-        <v>5515</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="3440" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45420,7 +45408,7 @@
         <v>3505</v>
       </c>
       <c r="B3440" s="9" t="s">
-        <v>5566</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="3441" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45444,7 +45432,7 @@
         <v>3508</v>
       </c>
       <c r="B3443" s="9" t="s">
-        <v>5567</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="3444" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45492,7 +45480,7 @@
         <v>3514</v>
       </c>
       <c r="B3449" s="8" t="s">
-        <v>5516</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="3450" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45516,7 +45504,7 @@
         <v>3516</v>
       </c>
       <c r="B3452" s="8" t="s">
-        <v>5517</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="3453" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45540,7 +45528,7 @@
         <v>3519</v>
       </c>
       <c r="B3455" s="8" t="s">
-        <v>5518</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="3456" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45548,7 +45536,7 @@
         <v>3520</v>
       </c>
       <c r="B3456" s="8" t="s">
-        <v>5519</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="3457" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45652,7 +45640,7 @@
         <v>191</v>
       </c>
       <c r="B3469" s="8" t="s">
-        <v>5520</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="3470" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45684,7 +45672,7 @@
         <v>3536</v>
       </c>
       <c r="B3473" s="8" t="s">
-        <v>5575</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="3474" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45716,7 +45704,7 @@
         <v>3540</v>
       </c>
       <c r="B3477" s="8" t="s">
-        <v>5576</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="3478" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45724,7 +45712,7 @@
         <v>3541</v>
       </c>
       <c r="B3478" s="8" t="s">
-        <v>5577</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="3479" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45732,7 +45720,7 @@
         <v>3542</v>
       </c>
       <c r="B3479" s="8" t="s">
-        <v>5578</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="3480" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45740,7 +45728,7 @@
         <v>3543</v>
       </c>
       <c r="B3480" s="8" t="s">
-        <v>5579</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="3481" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45788,7 +45776,7 @@
         <v>3549</v>
       </c>
       <c r="B3486" s="8" t="s">
-        <v>5580</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="3487" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45812,7 +45800,7 @@
         <v>3552</v>
       </c>
       <c r="B3489" s="8" t="s">
-        <v>5581</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="3490" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45820,7 +45808,7 @@
         <v>3553</v>
       </c>
       <c r="B3490" s="8" t="s">
-        <v>5582</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="3491" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45836,7 +45824,7 @@
         <v>3555</v>
       </c>
       <c r="B3492" s="8" t="s">
-        <v>5583</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="3493" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45844,7 +45832,7 @@
         <v>3556</v>
       </c>
       <c r="B3493" s="8" t="s">
-        <v>5584</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="3494" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45852,7 +45840,7 @@
         <v>3557</v>
       </c>
       <c r="B3494" s="8" t="s">
-        <v>5585</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="3495" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45900,7 +45888,7 @@
         <v>3563</v>
       </c>
       <c r="B3500" s="8" t="s">
-        <v>5586</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="3501" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45908,7 +45896,7 @@
         <v>3564</v>
       </c>
       <c r="B3501" s="8" t="s">
-        <v>5587</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="3502" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45916,7 +45904,7 @@
         <v>3565</v>
       </c>
       <c r="B3502" s="8" t="s">
-        <v>5588</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="3503" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45948,7 +45936,7 @@
         <v>3569</v>
       </c>
       <c r="B3506" s="8" t="s">
-        <v>5589</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="3507" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45972,7 +45960,7 @@
         <v>3572</v>
       </c>
       <c r="B3509" s="8" t="s">
-        <v>5590</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="3510" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -45988,7 +45976,7 @@
         <v>3574</v>
       </c>
       <c r="B3511" s="8" t="s">
-        <v>5591</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="3512" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46028,7 +46016,7 @@
         <v>3579</v>
       </c>
       <c r="B3516" s="9" t="s">
-        <v>5645</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="3517" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46036,7 +46024,7 @@
         <v>3580</v>
       </c>
       <c r="B3517" s="8" t="s">
-        <v>5592</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="3518" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46052,7 +46040,7 @@
         <v>3582</v>
       </c>
       <c r="B3519" s="8" t="s">
-        <v>5593</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="3520" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46060,7 +46048,7 @@
         <v>3583</v>
       </c>
       <c r="B3520" s="8" t="s">
-        <v>5594</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="3521" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46084,7 +46072,7 @@
         <v>3586</v>
       </c>
       <c r="B3523" s="8" t="s">
-        <v>5595</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="3524" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46092,7 +46080,7 @@
         <v>3587</v>
       </c>
       <c r="B3524" s="8" t="s">
-        <v>5596</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="3525" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46100,7 +46088,7 @@
         <v>3588</v>
       </c>
       <c r="B3525" s="8" t="s">
-        <v>5597</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="3526" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46108,7 +46096,7 @@
         <v>3589</v>
       </c>
       <c r="B3526" s="9" t="s">
-        <v>5646</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="3527" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46116,7 +46104,7 @@
         <v>3590</v>
       </c>
       <c r="B3527" s="8" t="s">
-        <v>5598</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="3528" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46124,7 +46112,7 @@
         <v>3591</v>
       </c>
       <c r="B3528" s="8" t="s">
-        <v>5599</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="3529" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46132,7 +46120,7 @@
         <v>3592</v>
       </c>
       <c r="B3529" s="8" t="s">
-        <v>5600</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="3530" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46148,7 +46136,7 @@
         <v>3594</v>
       </c>
       <c r="B3531" s="8" t="s">
-        <v>5601</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="3532" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46156,7 +46144,7 @@
         <v>3595</v>
       </c>
       <c r="B3532" s="8" t="s">
-        <v>5602</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="3533" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46164,7 +46152,7 @@
         <v>3596</v>
       </c>
       <c r="B3533" s="8" t="s">
-        <v>5603</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="3534" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46172,7 +46160,7 @@
         <v>3597</v>
       </c>
       <c r="B3534" s="8" t="s">
-        <v>5604</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="3535" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46188,7 +46176,7 @@
         <v>3599</v>
       </c>
       <c r="B3536" s="8" t="s">
-        <v>5605</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="3537" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46204,7 +46192,7 @@
         <v>3601</v>
       </c>
       <c r="B3538" s="8" t="s">
-        <v>5606</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="3539" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46220,7 +46208,7 @@
         <v>3603</v>
       </c>
       <c r="B3540" s="9" t="s">
-        <v>5647</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="3541" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46236,7 +46224,7 @@
         <v>3604</v>
       </c>
       <c r="B3542" s="8" t="s">
-        <v>5607</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="3543" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46244,7 +46232,7 @@
         <v>3605</v>
       </c>
       <c r="B3543" s="8" t="s">
-        <v>5608</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="3544" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46260,7 +46248,7 @@
         <v>3607</v>
       </c>
       <c r="B3545" s="8" t="s">
-        <v>5609</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="3546" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46292,7 +46280,7 @@
         <v>3611</v>
       </c>
       <c r="B3549" s="8" t="s">
-        <v>5610</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="3550" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46300,7 +46288,7 @@
         <v>3612</v>
       </c>
       <c r="B3550" s="8" t="s">
-        <v>5611</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="3551" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46308,7 +46296,7 @@
         <v>3613</v>
       </c>
       <c r="B3551" s="8" t="s">
-        <v>5612</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="3552" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46324,7 +46312,7 @@
         <v>3615</v>
       </c>
       <c r="B3553" s="9" t="s">
-        <v>5648</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="3554" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46332,7 +46320,7 @@
         <v>3616</v>
       </c>
       <c r="B3554" s="8" t="s">
-        <v>5613</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="3555" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46340,7 +46328,7 @@
         <v>3617</v>
       </c>
       <c r="B3555" s="8" t="s">
-        <v>5614</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="3556" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46348,7 +46336,7 @@
         <v>3618</v>
       </c>
       <c r="B3556" s="8" t="s">
-        <v>5615</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="3557" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46356,7 +46344,7 @@
         <v>3619</v>
       </c>
       <c r="B3557" s="8" t="s">
-        <v>5616</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="3558" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46364,7 +46352,7 @@
         <v>3620</v>
       </c>
       <c r="B3558" s="8" t="s">
-        <v>5617</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="3559" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46380,7 +46368,7 @@
         <v>3622</v>
       </c>
       <c r="B3560" s="8" t="s">
-        <v>5618</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="3561" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46388,7 +46376,7 @@
         <v>3623</v>
       </c>
       <c r="B3561" s="8" t="s">
-        <v>5619</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="3562" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46404,7 +46392,7 @@
         <v>3625</v>
       </c>
       <c r="B3563" s="8" t="s">
-        <v>5620</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="3564" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46452,7 +46440,7 @@
         <v>3631</v>
       </c>
       <c r="B3569" s="8" t="s">
-        <v>5621</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="3570" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46484,7 +46472,7 @@
         <v>3635</v>
       </c>
       <c r="B3573" s="8" t="s">
-        <v>5622</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="3574" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46492,7 +46480,7 @@
         <v>3636</v>
       </c>
       <c r="B3574" s="8" t="s">
-        <v>5623</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="3575" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46524,7 +46512,7 @@
         <v>3639</v>
       </c>
       <c r="B3578" s="8" t="s">
-        <v>5624</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="3579" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46532,7 +46520,7 @@
         <v>3640</v>
       </c>
       <c r="B3579" s="8" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="3580" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46540,7 +46528,7 @@
         <v>3641</v>
       </c>
       <c r="B3580" s="8" t="s">
-        <v>5626</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="3581" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46556,7 +46544,7 @@
         <v>3643</v>
       </c>
       <c r="B3582" s="8" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="3583" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46628,7 +46616,7 @@
         <v>3652</v>
       </c>
       <c r="B3591" s="8" t="s">
-        <v>5628</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="3592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46636,7 +46624,7 @@
         <v>3653</v>
       </c>
       <c r="B3592" s="8" t="s">
-        <v>5629</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="3593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46676,7 +46664,7 @@
         <v>3658</v>
       </c>
       <c r="B3597" s="8" t="s">
-        <v>5630</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="3598" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46692,7 +46680,7 @@
         <v>3660</v>
       </c>
       <c r="B3599" s="8" t="s">
-        <v>5631</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="3600" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46700,7 +46688,7 @@
         <v>3661</v>
       </c>
       <c r="B3600" s="8" t="s">
-        <v>5632</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="3601" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46708,7 +46696,7 @@
         <v>3662</v>
       </c>
       <c r="B3601" s="8" t="s">
-        <v>5633</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="3602" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46724,7 +46712,7 @@
         <v>3664</v>
       </c>
       <c r="B3603" s="8" t="s">
-        <v>5634</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="3604" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46740,7 +46728,7 @@
         <v>195</v>
       </c>
       <c r="B3605" s="8" t="s">
-        <v>5635</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="3606" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46748,7 +46736,7 @@
         <v>3666</v>
       </c>
       <c r="B3606" s="8" t="s">
-        <v>5636</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="3607" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46764,7 +46752,7 @@
         <v>3668</v>
       </c>
       <c r="B3608" s="8" t="s">
-        <v>5637</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="3609" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46804,7 +46792,7 @@
         <v>3673</v>
       </c>
       <c r="B3613" s="8" t="s">
-        <v>5638</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="3614" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46844,7 +46832,7 @@
         <v>3678</v>
       </c>
       <c r="B3618" s="8" t="s">
-        <v>5639</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="3619" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46876,7 +46864,7 @@
         <v>3682</v>
       </c>
       <c r="B3622" s="8" t="s">
-        <v>5640</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="3623" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46884,7 +46872,7 @@
         <v>3683</v>
       </c>
       <c r="B3623" s="8" t="s">
-        <v>5641</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="3624" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46900,7 +46888,7 @@
         <v>3685</v>
       </c>
       <c r="B3625" s="8" t="s">
-        <v>5642</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="3626" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46924,7 +46912,7 @@
         <v>3688</v>
       </c>
       <c r="B3628" s="8" t="s">
-        <v>5643</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="3629" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46932,7 +46920,7 @@
         <v>3689</v>
       </c>
       <c r="B3629" s="8" t="s">
-        <v>5644</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="3630" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46956,7 +46944,7 @@
         <v>3692</v>
       </c>
       <c r="B3632" s="8" t="s">
-        <v>5649</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="3633" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47004,7 +46992,7 @@
         <v>3698</v>
       </c>
       <c r="B3638" s="8" t="s">
-        <v>5650</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="3639" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47012,7 +47000,7 @@
         <v>3699</v>
       </c>
       <c r="B3639" s="9" t="s">
-        <v>5683</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="3640" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47036,7 +47024,7 @@
         <v>3702</v>
       </c>
       <c r="B3642" s="8" t="s">
-        <v>5651</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="3643" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47052,7 +47040,7 @@
         <v>3704</v>
       </c>
       <c r="B3644" s="8" t="s">
-        <v>5652</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="3645" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47060,7 +47048,7 @@
         <v>3705</v>
       </c>
       <c r="B3645" s="8" t="s">
-        <v>5653</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="3646" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47156,7 +47144,7 @@
         <v>3717</v>
       </c>
       <c r="B3657" s="8" t="s">
-        <v>5654</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="3658" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47164,7 +47152,7 @@
         <v>3718</v>
       </c>
       <c r="B3658" s="8" t="s">
-        <v>5655</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="3659" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47172,7 +47160,7 @@
         <v>3719</v>
       </c>
       <c r="B3659" s="8" t="s">
-        <v>5656</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="3660" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47180,7 +47168,7 @@
         <v>3720</v>
       </c>
       <c r="B3660" s="8" t="s">
-        <v>5657</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="3661" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47188,7 +47176,7 @@
         <v>3721</v>
       </c>
       <c r="B3661" s="8" t="s">
-        <v>5658</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="3662" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47212,7 +47200,7 @@
         <v>3724</v>
       </c>
       <c r="B3664" s="9" t="s">
-        <v>5684</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="3665" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47228,7 +47216,7 @@
         <v>3726</v>
       </c>
       <c r="B3666" s="8" t="s">
-        <v>5659</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="3667" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47252,7 +47240,7 @@
         <v>3729</v>
       </c>
       <c r="B3669" s="8" t="s">
-        <v>5660</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="3670" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47260,7 +47248,7 @@
         <v>3730</v>
       </c>
       <c r="B3670" s="8" t="s">
-        <v>5661</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="3671" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47276,7 +47264,7 @@
         <v>3732</v>
       </c>
       <c r="B3672" s="8" t="s">
-        <v>5662</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="3673" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47300,7 +47288,7 @@
         <v>3735</v>
       </c>
       <c r="B3675" s="8" t="s">
-        <v>5663</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="3676" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47332,7 +47320,7 @@
         <v>3739</v>
       </c>
       <c r="B3679" s="8" t="s">
-        <v>5664</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="3680" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47404,7 +47392,7 @@
         <v>3748</v>
       </c>
       <c r="B3688" s="8" t="s">
-        <v>5665</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="3689" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47412,7 +47400,7 @@
         <v>3749</v>
       </c>
       <c r="B3689" s="8" t="s">
-        <v>5666</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="3690" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47428,7 +47416,7 @@
         <v>3751</v>
       </c>
       <c r="B3691" s="9" t="s">
-        <v>5685</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="3692" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47468,7 +47456,7 @@
         <v>3756</v>
       </c>
       <c r="B3696" s="8" t="s">
-        <v>5667</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="3697" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47476,7 +47464,7 @@
         <v>3757</v>
       </c>
       <c r="B3697" s="8" t="s">
-        <v>5668</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="3698" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47500,7 +47488,7 @@
         <v>3760</v>
       </c>
       <c r="B3700" s="8" t="s">
-        <v>5669</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="3701" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47524,7 +47512,7 @@
         <v>3763</v>
       </c>
       <c r="B3703" s="8" t="s">
-        <v>5670</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="3704" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47532,7 +47520,7 @@
         <v>3764</v>
       </c>
       <c r="B3704" s="8" t="s">
-        <v>5671</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="3705" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47564,7 +47552,7 @@
         <v>3768</v>
       </c>
       <c r="B3708" s="8" t="s">
-        <v>5672</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="3709" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47628,7 +47616,7 @@
         <v>3776</v>
       </c>
       <c r="B3716" s="8" t="s">
-        <v>5673</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="3717" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47660,7 +47648,7 @@
         <v>3780</v>
       </c>
       <c r="B3720" s="8" t="s">
-        <v>5674</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="3721" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47700,7 +47688,7 @@
         <v>3784</v>
       </c>
       <c r="B3725" s="8" t="s">
-        <v>5675</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="3726" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47708,7 +47696,7 @@
         <v>3785</v>
       </c>
       <c r="B3726" s="8" t="s">
-        <v>5676</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="3727" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47724,7 +47712,7 @@
         <v>3787</v>
       </c>
       <c r="B3728" s="8" t="s">
-        <v>5677</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="3729" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47748,7 +47736,7 @@
         <v>3790</v>
       </c>
       <c r="B3731" s="8" t="s">
-        <v>5678</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="3732" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47756,7 +47744,7 @@
         <v>198</v>
       </c>
       <c r="B3732" s="8" t="s">
-        <v>5679</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="3733" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47764,7 +47752,7 @@
         <v>3791</v>
       </c>
       <c r="B3733" s="8" t="s">
-        <v>5680</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="3734" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47772,7 +47760,7 @@
         <v>3792</v>
       </c>
       <c r="B3734" s="8" t="s">
-        <v>5681</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="3735" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47788,7 +47776,7 @@
         <v>199</v>
       </c>
       <c r="B3736" s="8" t="s">
-        <v>5682</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="3737" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47796,7 +47784,7 @@
         <v>3794</v>
       </c>
       <c r="B3737" s="5" t="s">
-        <v>5705</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="3738" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47812,7 +47800,7 @@
         <v>3796</v>
       </c>
       <c r="B3739" s="8" t="s">
-        <v>5686</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="3740" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47844,7 +47832,7 @@
         <v>3800</v>
       </c>
       <c r="B3743" s="8" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="3744" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47860,7 +47848,7 @@
         <v>202</v>
       </c>
       <c r="B3745" s="8" t="s">
-        <v>5688</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="3746" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47868,7 +47856,7 @@
         <v>3802</v>
       </c>
       <c r="B3746" s="9" t="s">
-        <v>5688</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="3747" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47876,7 +47864,7 @@
         <v>3803</v>
       </c>
       <c r="B3747" s="9" t="s">
-        <v>5688</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="3748" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47884,7 +47872,7 @@
         <v>3804</v>
       </c>
       <c r="B3748" s="9" t="s">
-        <v>5703</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="3749" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47892,7 +47880,7 @@
         <v>3805</v>
       </c>
       <c r="B3749" s="8" t="s">
-        <v>5689</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="3750" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47924,7 +47912,7 @@
         <v>3809</v>
       </c>
       <c r="B3753" s="8" t="s">
-        <v>5690</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="3754" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47932,7 +47920,7 @@
         <v>3810</v>
       </c>
       <c r="B3754" s="8" t="s">
-        <v>5691</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="3755" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47940,7 +47928,7 @@
         <v>3811</v>
       </c>
       <c r="B3755" s="8" t="s">
-        <v>5692</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="3756" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47948,7 +47936,7 @@
         <v>3812</v>
       </c>
       <c r="B3756" s="8" t="s">
-        <v>5693</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="3757" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47964,7 +47952,7 @@
         <v>3813</v>
       </c>
       <c r="B3758" s="8" t="s">
-        <v>5694</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="3759" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47972,7 +47960,7 @@
         <v>3814</v>
       </c>
       <c r="B3759" s="8" t="s">
-        <v>5695</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="3760" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47988,7 +47976,7 @@
         <v>3816</v>
       </c>
       <c r="B3761" s="9" t="s">
-        <v>5704</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="3762" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48004,7 +47992,7 @@
         <v>3818</v>
       </c>
       <c r="B3763" s="8" t="s">
-        <v>5696</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="3764" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48060,7 +48048,7 @@
         <v>3824</v>
       </c>
       <c r="B3770" s="8" t="s">
-        <v>5697</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="3771" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48068,7 +48056,7 @@
         <v>3825</v>
       </c>
       <c r="B3771" s="8" t="s">
-        <v>5698</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="3772" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48076,7 +48064,7 @@
         <v>3826</v>
       </c>
       <c r="B3772" s="8" t="s">
-        <v>5699</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="3773" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48084,7 +48072,7 @@
         <v>3827</v>
       </c>
       <c r="B3773" s="8" t="s">
-        <v>5700</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="3774" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48092,7 +48080,7 @@
         <v>3828</v>
       </c>
       <c r="B3774" s="8" t="s">
-        <v>5701</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="3775" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48108,7 +48096,7 @@
         <v>3830</v>
       </c>
       <c r="B3776" s="8" t="s">
-        <v>5702</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="3777" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48156,7 +48144,7 @@
         <v>3835</v>
       </c>
       <c r="B3782" s="5" t="s">
-        <v>5706</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="3783" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48180,7 +48168,7 @@
         <v>3838</v>
       </c>
       <c r="B3785" s="5" t="s">
-        <v>5707</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="3786" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48188,7 +48176,7 @@
         <v>3839</v>
       </c>
       <c r="B3786" s="5" t="s">
-        <v>5708</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="3787" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48196,7 +48184,7 @@
         <v>3840</v>
       </c>
       <c r="B3787" s="5" t="s">
-        <v>5709</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="3788" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48204,7 +48192,7 @@
         <v>3841</v>
       </c>
       <c r="B3788" s="5" t="s">
-        <v>5710</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="3789" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48212,7 +48200,7 @@
         <v>3842</v>
       </c>
       <c r="B3789" s="5" t="s">
-        <v>5711</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="3790" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48220,7 +48208,7 @@
         <v>3843</v>
       </c>
       <c r="B3790" s="5" t="s">
-        <v>5712</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="3791" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48228,7 +48216,7 @@
         <v>3844</v>
       </c>
       <c r="B3791" s="5" t="s">
-        <v>5713</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="3792" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48236,7 +48224,7 @@
         <v>3845</v>
       </c>
       <c r="B3792" s="5" t="s">
-        <v>5714</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="3793" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48252,7 +48240,7 @@
         <v>206</v>
       </c>
       <c r="B3794" s="5" t="s">
-        <v>5716</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="3795" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48268,7 +48256,7 @@
         <v>3848</v>
       </c>
       <c r="B3796" s="5" t="s">
-        <v>5715</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="3797" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48276,7 +48264,7 @@
         <v>3849</v>
       </c>
       <c r="B3797" s="5" t="s">
-        <v>5718</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="3798" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48284,7 +48272,7 @@
         <v>3850</v>
       </c>
       <c r="B3798" s="5" t="s">
-        <v>5717</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="3799" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48292,7 +48280,7 @@
         <v>3851</v>
       </c>
       <c r="B3799" s="5" t="s">
-        <v>5719</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="3800" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48300,7 +48288,7 @@
         <v>3852</v>
       </c>
       <c r="B3800" s="5" t="s">
-        <v>5720</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="3801" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48308,7 +48296,7 @@
         <v>3853</v>
       </c>
       <c r="B3801" s="5" t="s">
-        <v>5721</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="3802" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48324,7 +48312,7 @@
         <v>207</v>
       </c>
       <c r="B3803" s="5" t="s">
-        <v>5722</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="3804" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48332,7 +48320,7 @@
         <v>208</v>
       </c>
       <c r="B3804" s="8" t="s">
-        <v>5723</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="3805" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48340,7 +48328,7 @@
         <v>3855</v>
       </c>
       <c r="B3805" s="8" t="s">
-        <v>5724</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="3806" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48348,7 +48336,7 @@
         <v>3856</v>
       </c>
       <c r="B3806" s="8" t="s">
-        <v>5725</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="3807" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48356,7 +48344,7 @@
         <v>3857</v>
       </c>
       <c r="B3807" s="8" t="s">
-        <v>5726</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="3808" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48364,7 +48352,7 @@
         <v>3858</v>
       </c>
       <c r="B3808" s="8" t="s">
-        <v>5727</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="3809" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48372,7 +48360,7 @@
         <v>3859</v>
       </c>
       <c r="B3809" s="8" t="s">
-        <v>5728</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="3810" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48380,7 +48368,7 @@
         <v>3860</v>
       </c>
       <c r="B3810" s="8" t="s">
-        <v>5729</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="3811" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48388,7 +48376,7 @@
         <v>209</v>
       </c>
       <c r="B3811" s="8" t="s">
-        <v>5730</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="3812" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48404,7 +48392,7 @@
         <v>3862</v>
       </c>
       <c r="B3813" s="8" t="s">
-        <v>5731</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="3814" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48412,7 +48400,7 @@
         <v>3863</v>
       </c>
       <c r="B3814" s="8" t="s">
-        <v>5732</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="3815" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48420,7 +48408,7 @@
         <v>3864</v>
       </c>
       <c r="B3815" s="8" t="s">
-        <v>5733</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="3816" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48428,7 +48416,7 @@
         <v>3865</v>
       </c>
       <c r="B3816" s="8" t="s">
-        <v>5734</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="3817" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48436,7 +48424,7 @@
         <v>3866</v>
       </c>
       <c r="B3817" s="8" t="s">
-        <v>5735</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="3818" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48444,7 +48432,7 @@
         <v>3867</v>
       </c>
       <c r="B3818" s="8" t="s">
-        <v>5736</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="3819" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48460,7 +48448,7 @@
         <v>3869</v>
       </c>
       <c r="B3820" s="8" t="s">
-        <v>5737</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="3821" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48476,7 +48464,7 @@
         <v>3871</v>
       </c>
       <c r="B3822" s="8" t="s">
-        <v>5738</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="3823" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48484,7 +48472,7 @@
         <v>3872</v>
       </c>
       <c r="B3823" s="8" t="s">
-        <v>5739</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="3824" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48492,7 +48480,7 @@
         <v>210</v>
       </c>
       <c r="B3824" s="8" t="s">
-        <v>5740</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="3825" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48500,7 +48488,7 @@
         <v>3873</v>
       </c>
       <c r="B3825" s="8" t="s">
-        <v>5741</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="3826" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48508,7 +48496,7 @@
         <v>3874</v>
       </c>
       <c r="B3826" s="8" t="s">
-        <v>5742</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="3827" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48548,7 +48536,7 @@
         <v>3879</v>
       </c>
       <c r="B3831" s="8" t="s">
-        <v>5743</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="3832" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48556,7 +48544,7 @@
         <v>3880</v>
       </c>
       <c r="B3832" s="8" t="s">
-        <v>5744</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="3833" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48572,7 +48560,7 @@
         <v>3882</v>
       </c>
       <c r="B3834" s="8" t="s">
-        <v>5745</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="3835" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48580,7 +48568,7 @@
         <v>3883</v>
       </c>
       <c r="B3835" s="8" t="s">
-        <v>5746</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="3836" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48588,7 +48576,7 @@
         <v>3884</v>
       </c>
       <c r="B3836" s="8" t="s">
-        <v>5747</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="3837" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48596,7 +48584,7 @@
         <v>3885</v>
       </c>
       <c r="B3837" s="8" t="s">
-        <v>5748</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="3838" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48604,7 +48592,7 @@
         <v>3886</v>
       </c>
       <c r="B3838" s="8" t="s">
-        <v>5749</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="3839" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48612,7 +48600,7 @@
         <v>3887</v>
       </c>
       <c r="B3839" s="8" t="s">
-        <v>5750</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="3840" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48660,7 +48648,7 @@
         <v>3892</v>
       </c>
       <c r="B3845" s="8" t="s">
-        <v>5751</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="3846" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48684,7 +48672,7 @@
         <v>3895</v>
       </c>
       <c r="B3848" s="8" t="s">
-        <v>5752</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="3849" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48692,7 +48680,7 @@
         <v>3896</v>
       </c>
       <c r="B3849" s="8" t="s">
-        <v>5753</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="3850" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48708,7 +48696,7 @@
         <v>3898</v>
       </c>
       <c r="B3851" s="8" t="s">
-        <v>5754</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="3852" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48724,7 +48712,7 @@
         <v>3900</v>
       </c>
       <c r="B3853" s="8" t="s">
-        <v>5755</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="3854" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48740,7 +48728,7 @@
         <v>3902</v>
       </c>
       <c r="B3855" s="8" t="s">
-        <v>5756</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="3856" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48756,7 +48744,7 @@
         <v>3904</v>
       </c>
       <c r="B3857" s="8" t="s">
-        <v>5757</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="3858" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48780,7 +48768,7 @@
         <v>3907</v>
       </c>
       <c r="B3860" s="8" t="s">
-        <v>5758</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="3861" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48804,7 +48792,7 @@
         <v>3910</v>
       </c>
       <c r="B3863" s="8" t="s">
-        <v>5759</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="3864" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48820,7 +48808,7 @@
         <v>3912</v>
       </c>
       <c r="B3865" s="8" t="s">
-        <v>5760</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="3866" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48828,7 +48816,7 @@
         <v>3913</v>
       </c>
       <c r="B3866" s="8" t="s">
-        <v>5761</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="3867" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48836,7 +48824,7 @@
         <v>3914</v>
       </c>
       <c r="B3867" s="8" t="s">
-        <v>5762</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="3868" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48844,7 +48832,7 @@
         <v>3915</v>
       </c>
       <c r="B3868" s="8" t="s">
-        <v>5763</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="3869" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48860,7 +48848,7 @@
         <v>3917</v>
       </c>
       <c r="B3870" s="9" t="s">
-        <v>5768</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="3871" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48876,7 +48864,7 @@
         <v>3919</v>
       </c>
       <c r="B3872" s="8" t="s">
-        <v>5764</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="3873" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48884,7 +48872,7 @@
         <v>3920</v>
       </c>
       <c r="B3873" s="8" t="s">
-        <v>5765</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="3874" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48892,7 +48880,7 @@
         <v>3921</v>
       </c>
       <c r="B3874" s="8" t="s">
-        <v>5766</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="3875" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48900,7 +48888,7 @@
         <v>3922</v>
       </c>
       <c r="B3875" s="8" t="s">
-        <v>5767</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="3876" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48908,7 +48896,7 @@
         <v>3923</v>
       </c>
       <c r="B3876" s="8" t="s">
-        <v>5768</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="3877" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48924,7 +48912,7 @@
         <v>3925</v>
       </c>
       <c r="B3878" s="8" t="s">
-        <v>5769</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="3879" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48932,7 +48920,7 @@
         <v>3926</v>
       </c>
       <c r="B3879" s="8" t="s">
-        <v>5770</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="3880" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48940,7 +48928,7 @@
         <v>3927</v>
       </c>
       <c r="B3880" s="8" t="s">
-        <v>5771</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="3881" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48948,7 +48936,7 @@
         <v>3928</v>
       </c>
       <c r="B3881" s="8" t="s">
-        <v>5772</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="3882" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48956,7 +48944,7 @@
         <v>3929</v>
       </c>
       <c r="B3882" s="8" t="s">
-        <v>5773</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="3883" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -48964,7 +48952,7 @@
         <v>3930</v>
       </c>
       <c r="B3883" s="8" t="s">
-        <v>5774</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="3884" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49020,7 +49008,7 @@
         <v>3937</v>
       </c>
       <c r="B3890" s="8" t="s">
-        <v>5775</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="3891" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49036,7 +49024,7 @@
         <v>3939</v>
       </c>
       <c r="B3892" s="8" t="s">
-        <v>5776</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="3893" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49060,7 +49048,7 @@
         <v>3942</v>
       </c>
       <c r="B3895" s="8" t="s">
-        <v>5777</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="3896" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49084,7 +49072,7 @@
         <v>3945</v>
       </c>
       <c r="B3898" s="8" t="s">
-        <v>5778</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="3899" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49132,7 +49120,7 @@
         <v>3950</v>
       </c>
       <c r="B3904" s="8" t="s">
-        <v>5779</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="3905" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49140,7 +49128,7 @@
         <v>3951</v>
       </c>
       <c r="B3905" s="9" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="3906" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49188,7 +49176,7 @@
         <v>3957</v>
       </c>
       <c r="B3911" s="8" t="s">
-        <v>5780</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="3912" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49212,7 +49200,7 @@
         <v>3960</v>
       </c>
       <c r="B3914" s="8" t="s">
-        <v>5781</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="3915" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49220,7 +49208,7 @@
         <v>3961</v>
       </c>
       <c r="B3915" s="8" t="s">
-        <v>5782</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="3916" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49228,7 +49216,7 @@
         <v>3962</v>
       </c>
       <c r="B3916" s="8" t="s">
-        <v>5783</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="3917" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49244,7 +49232,7 @@
         <v>3964</v>
       </c>
       <c r="B3918" s="8" t="s">
-        <v>5784</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="3919" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49252,7 +49240,7 @@
         <v>3965</v>
       </c>
       <c r="B3919" s="8" t="s">
-        <v>5785</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="3920" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49260,7 +49248,7 @@
         <v>213</v>
       </c>
       <c r="B3920" s="8" t="s">
-        <v>5786</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="3921" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49268,7 +49256,7 @@
         <v>3966</v>
       </c>
       <c r="B3921" s="8" t="s">
-        <v>5787</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="3922" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49276,7 +49264,7 @@
         <v>3967</v>
       </c>
       <c r="B3922" s="8" t="s">
-        <v>5788</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="3923" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49292,7 +49280,7 @@
         <v>3969</v>
       </c>
       <c r="B3924" s="8" t="s">
-        <v>5789</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="3925" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49308,7 +49296,7 @@
         <v>3971</v>
       </c>
       <c r="B3926" s="8" t="s">
-        <v>5790</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="3927" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49316,7 +49304,7 @@
         <v>3972</v>
       </c>
       <c r="B3927" s="8" t="s">
-        <v>5791</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="3928" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49324,7 +49312,7 @@
         <v>3973</v>
       </c>
       <c r="B3928" s="8" t="s">
-        <v>5792</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="3929" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49332,7 +49320,7 @@
         <v>3974</v>
       </c>
       <c r="B3929" s="8" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="3930" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49340,7 +49328,7 @@
         <v>3975</v>
       </c>
       <c r="B3930" s="8" t="s">
-        <v>5794</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="3931" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49348,7 +49336,7 @@
         <v>3976</v>
       </c>
       <c r="B3931" s="8" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="3932" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49356,7 +49344,7 @@
         <v>3977</v>
       </c>
       <c r="B3932" s="8" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="3933" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49396,7 +49384,7 @@
         <v>3982</v>
       </c>
       <c r="B3937" s="8" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="3938" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49428,7 +49416,7 @@
         <v>3986</v>
       </c>
       <c r="B3941" s="8" t="s">
-        <v>5798</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="3942" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49436,7 +49424,7 @@
         <v>3987</v>
       </c>
       <c r="B3942" s="8" t="s">
-        <v>5799</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="3943" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49444,7 +49432,7 @@
         <v>3988</v>
       </c>
       <c r="B3943" s="8" t="s">
-        <v>5800</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="3944" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49452,7 +49440,7 @@
         <v>3989</v>
       </c>
       <c r="B3944" s="8" t="s">
-        <v>5801</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="3945" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49460,7 +49448,7 @@
         <v>3990</v>
       </c>
       <c r="B3945" s="8" t="s">
-        <v>5802</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="3946" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49468,7 +49456,7 @@
         <v>3991</v>
       </c>
       <c r="B3946" s="8" t="s">
-        <v>5803</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="3947" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49476,7 +49464,7 @@
         <v>3992</v>
       </c>
       <c r="B3947" s="8" t="s">
-        <v>5804</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="3948" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49484,7 +49472,7 @@
         <v>3993</v>
       </c>
       <c r="B3948" s="8" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="3949" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49508,7 +49496,7 @@
         <v>3996</v>
       </c>
       <c r="B3951" s="8" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="3952" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49556,7 +49544,7 @@
         <v>4002</v>
       </c>
       <c r="B3957" s="8" t="s">
-        <v>5808</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="3958" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49564,7 +49552,7 @@
         <v>4003</v>
       </c>
       <c r="B3958" s="8" t="s">
-        <v>5809</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="3959" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49580,7 +49568,7 @@
         <v>4005</v>
       </c>
       <c r="B3960" s="8" t="s">
-        <v>5810</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="3961" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49588,7 +49576,7 @@
         <v>4006</v>
       </c>
       <c r="B3961" s="8" t="s">
-        <v>5811</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="3962" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49609,10 +49597,10 @@
     </row>
     <row r="3964" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3964" s="5" t="s">
-        <v>5813</v>
+        <v>5810</v>
       </c>
       <c r="B3964" s="8" t="s">
-        <v>5812</v>
+        <v>5809</v>
       </c>
     </row>
   </sheetData>
@@ -49625,8 +49613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -49664,7 +49652,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5814</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49712,7 +49700,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>8</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49736,7 +49724,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>5815</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49744,7 +49732,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>5816</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49776,7 +49764,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>5817</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49784,7 +49772,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>5818</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49792,7 +49780,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5819</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49816,7 +49804,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>5820</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49864,7 +49852,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>4983</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49880,7 +49868,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5821</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49896,7 +49884,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49912,7 +49900,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>5822</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49928,7 +49916,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>5823</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49944,7 +49932,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>5824</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49960,7 +49948,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49976,7 +49964,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>5825</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -49992,7 +49980,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50008,7 +49996,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>5826</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50016,7 +50004,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>5827</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50048,7 +50036,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50072,7 +50060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>53</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50160,7 +50148,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>5828</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50168,7 +50156,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>5829</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50208,7 +50196,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>5830</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50232,7 +50220,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>5831</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50256,7 +50244,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>5300</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50264,7 +50252,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>5832</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50288,7 +50276,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>5833</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50296,7 +50284,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>5834</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50304,7 +50292,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>5835</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50368,7 +50356,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>5836</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50416,7 +50404,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>5853</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50464,7 +50452,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>5837</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50504,7 +50492,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>5852</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50520,7 +50508,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>109</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50552,7 +50540,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>5854</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50608,7 +50596,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>5838</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50624,7 +50612,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>5839</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50680,7 +50668,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>5840</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50776,7 +50764,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>5841</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50880,7 +50868,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>5842</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50888,7 +50876,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>5843</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50920,7 +50908,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>5844</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50952,7 +50940,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>5368</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -50984,7 +50972,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>5845</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51000,7 +50988,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>5855</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51016,7 +51004,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>5846</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51072,7 +51060,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>5847</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51088,7 +51076,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>5848</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51096,7 +51084,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>5435</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51112,7 +51100,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>5543</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51128,7 +51116,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>5470</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51136,7 +51124,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>5496</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51144,7 +51132,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>5557</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51152,7 +51140,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>5511</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51176,7 +51164,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>5520</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51184,7 +51172,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>5856</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51200,7 +51188,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>5849</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51208,7 +51196,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>5635</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51232,7 +51220,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>5679</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51240,7 +51228,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>5682</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51256,7 +51244,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>5850</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51264,7 +51252,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>5688</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51296,7 +51284,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>5716</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51304,7 +51292,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>5851</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51312,7 +51300,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>5723</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51320,7 +51308,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>5730</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51328,7 +51316,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>5740</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -51352,7 +51340,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>5786</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
